--- a/outputs/wave_equation_1d.xlsx
+++ b/outputs/wave_equation_1d.xlsx
@@ -462,91 +462,91 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03448275862068965</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.06896551724137931</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.103448275862069</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1379310344827586</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.1724137931034483</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.2068965517241379</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2413793103448276</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.2758620689655172</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3103448275862069</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3448275862068966</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.3793103448275862</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.4137931034482759</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4482758620689655</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4827586206896551</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.5172413793103449</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.5517241379310345</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.5862068965517241</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.6206896551724138</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.6551724137931034</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.6896551724137931</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.7241379310344828</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.7586206896551724</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.7931034482758621</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.8275862068965517</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.8620689655172413</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.896551724137931</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9310344827586207</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9655172413793103</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -560,88 +560,88 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.03478002378121284</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="E4">
-        <v>0.06926278240190249</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="F4">
-        <v>0.1037455410225922</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="G4">
-        <v>0.1382282996432818</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="H4">
-        <v>0.1727110582639715</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="I4">
-        <v>0.2071938168846612</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="J4">
-        <v>0.2416765755053508</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="K4">
-        <v>0.2761593341260404</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="L4">
-        <v>0.3106420927467302</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="M4">
-        <v>0.3451248513674198</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="N4">
-        <v>0.3796076099881094</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="O4">
-        <v>0.4140903686087991</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="P4">
-        <v>0.4485731272294887</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="Q4">
-        <v>0.4830558858501783</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="R4">
-        <v>0.5175386444708681</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="S4">
-        <v>0.5520214030915577</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="T4">
-        <v>0.5865041617122473</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="U4">
-        <v>0.620986920332937</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="V4">
-        <v>0.6554696789536266</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="W4">
-        <v>0.6899524375743163</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="X4">
-        <v>0.7244351961950061</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="Y4">
-        <v>0.7589179548156956</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="Z4">
-        <v>0.7934007134363853</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AA4">
-        <v>0.8278834720570749</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AB4">
-        <v>0.8623662306777645</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AC4">
-        <v>0.8968489892984542</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AD4">
-        <v>0.9313317479191439</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AE4">
-        <v>0.9658145065398335</v>
+        <v>1.000297265160523</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -655,88 +655,88 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.2850029726516052</v>
+        <v>1.000520214030916</v>
       </c>
       <c r="E5">
-        <v>0.06956004756242568</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="F5">
-        <v>0.1040428061831154</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="G5">
-        <v>0.1385255648038051</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="H5">
-        <v>0.1730083234244947</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="I5">
-        <v>0.2074910820451843</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="J5">
-        <v>0.241973840665874</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="K5">
-        <v>0.2764565992865636</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="L5">
-        <v>0.3109393579072534</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="M5">
-        <v>0.345422116527943</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="N5">
-        <v>0.3799048751486326</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="O5">
-        <v>0.4143876337693224</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="P5">
-        <v>0.4488703923900119</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="Q5">
-        <v>0.4833531510107015</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="R5">
-        <v>0.5178359096313913</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="S5">
-        <v>0.5523186682520809</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="T5">
-        <v>0.5868014268727705</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="U5">
-        <v>0.6212841854934602</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="V5">
-        <v>0.6557669441141498</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="W5">
-        <v>0.6902497027348395</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="X5">
-        <v>0.7247324613555292</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="Y5">
-        <v>0.7592152199762188</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="Z5">
-        <v>0.7936979785969085</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="AA5">
-        <v>0.8281807372175981</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="AB5">
-        <v>0.8626634958382877</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="AC5">
-        <v>0.8971462544589774</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="AD5">
-        <v>0.9316290130796671</v>
+        <v>1.000594530321046</v>
       </c>
       <c r="AE5">
-        <v>0.9660374554102258</v>
+        <v>1.000520214030916</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -750,88 +750,88 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.6601144470868014</v>
+        <v>1.000631688466112</v>
       </c>
       <c r="E6">
-        <v>0.1323387336504162</v>
+        <v>1.000873216409036</v>
       </c>
       <c r="F6">
-        <v>0.1043400713436386</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="G6">
-        <v>0.1388228299643283</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="H6">
-        <v>0.1733055885850179</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="I6">
-        <v>0.2077883472057075</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="J6">
-        <v>0.2422711058263973</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="K6">
-        <v>0.2767538644470868</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="L6">
-        <v>0.3112366230677766</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="M6">
-        <v>0.3457193816884662</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="N6">
-        <v>0.3802021403091559</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="O6">
-        <v>0.4146848989298455</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="P6">
-        <v>0.4491676575505351</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="Q6">
-        <v>0.4836504161712248</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="R6">
-        <v>0.5181331747919142</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="S6">
-        <v>0.5526159334126041</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="T6">
-        <v>0.5870986920332937</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="U6">
-        <v>0.6215814506539834</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="V6">
-        <v>0.656064209274673</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="W6">
-        <v>0.6905469678953627</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="X6">
-        <v>0.7250297265160522</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="Y6">
-        <v>0.759512485136742</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="Z6">
-        <v>0.7939952437574317</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="AA6">
-        <v>0.8284780023781211</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="AB6">
-        <v>0.8629607609988109</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="AC6">
-        <v>0.8974435196195006</v>
+        <v>1.000891795481569</v>
       </c>
       <c r="AD6">
-        <v>0.9319076991676576</v>
+        <v>1.000873216409036</v>
       </c>
       <c r="AE6">
-        <v>0.9661489298454219</v>
+        <v>1.000631688466112</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -845,88 +845,88 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9882533813912009</v>
+        <v>1.000645622770511</v>
       </c>
       <c r="E7">
-        <v>0.3200616825208085</v>
+        <v>1.001096165279428</v>
       </c>
       <c r="F7">
-        <v>0.1202576917360286</v>
+        <v>1.001184415873959</v>
       </c>
       <c r="G7">
-        <v>0.1391200951248515</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="H7">
-        <v>0.1736028537455411</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="I7">
-        <v>0.2080856123662308</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="J7">
-        <v>0.2425683709869205</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="K7">
-        <v>0.27705112960761</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="L7">
-        <v>0.3115338882282996</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="M7">
-        <v>0.3460166468489895</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="N7">
-        <v>0.3804994054696791</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="O7">
-        <v>0.4149821640903686</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="P7">
-        <v>0.4494649227110584</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="Q7">
-        <v>0.4839476813317479</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="R7">
-        <v>0.5184304399524374</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="S7">
-        <v>0.5529131985731273</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="T7">
-        <v>0.5873959571938169</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="U7">
-        <v>0.6218787158145066</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="V7">
-        <v>0.6563614744351962</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="W7">
-        <v>0.6908442330558857</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="X7">
-        <v>0.7253269916765753</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="Y7">
-        <v>0.7598097502972652</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="Z7">
-        <v>0.7942925089179549</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="AA7">
-        <v>0.8287752675386441</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="AB7">
-        <v>0.8632580261593341</v>
+        <v>1.001189060642092</v>
       </c>
       <c r="AC7">
-        <v>0.8977361400118906</v>
+        <v>1.001184415873959</v>
       </c>
       <c r="AD7">
-        <v>0.9321306480380497</v>
+        <v>1.001096165279428</v>
       </c>
       <c r="AE7">
-        <v>0.9661628641498214</v>
+        <v>1.000645622770511</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -940,88 +940,88 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1.152281045630202</v>
+        <v>1.000610787009512</v>
       </c>
       <c r="E8">
-        <v>0.6248815584126041</v>
+        <v>1.001228541171224</v>
       </c>
       <c r="F8">
-        <v>0.1908419106718193</v>
+        <v>1.00145613480975</v>
       </c>
       <c r="G8">
-        <v>0.1433224490933414</v>
+        <v>1.001485164610582</v>
       </c>
       <c r="H8">
-        <v>0.1739001189060643</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="I8">
-        <v>0.2083828775267539</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="J8">
-        <v>0.2428656361474437</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="K8">
-        <v>0.2773483947681332</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="L8">
-        <v>0.3118311533888227</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="M8">
-        <v>0.3463139120095127</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="N8">
-        <v>0.3807966706302023</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="O8">
-        <v>0.4152794292508919</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="P8">
-        <v>0.4497621878715816</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="Q8">
-        <v>0.484244946492271</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="R8">
-        <v>0.5187277051129606</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="S8">
-        <v>0.5532104637336505</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="T8">
-        <v>0.5876932223543401</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="U8">
-        <v>0.6221759809750298</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="V8">
-        <v>0.6566587395957194</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="W8">
-        <v>0.6911414982164087</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="X8">
-        <v>0.7256242568370984</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="Y8">
-        <v>0.7601070154577886</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="Z8">
-        <v>0.7945897740784779</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="AA8">
-        <v>0.8290725326991673</v>
+        <v>1.001486325802615</v>
       </c>
       <c r="AB8">
-        <v>0.8635541301278237</v>
+        <v>1.001485164610582</v>
       </c>
       <c r="AC8">
-        <v>0.8980078589476813</v>
+        <v>1.00145613480975</v>
       </c>
       <c r="AD8">
-        <v>0.9322630239298451</v>
+        <v>1.001228541171224</v>
       </c>
       <c r="AE8">
-        <v>0.9661280283888226</v>
+        <v>1.000610787009512</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1035,88 +1035,88 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.146388576657253</v>
+        <v>1.000577693036563</v>
       </c>
       <c r="E9">
-        <v>0.9530413941736031</v>
+        <v>1.001263376932223</v>
       </c>
       <c r="F9">
-        <v>0.3580561761481866</v>
+        <v>1.001678212786117</v>
       </c>
       <c r="G9">
-        <v>0.1670490859096315</v>
+        <v>1.001774301426873</v>
       </c>
       <c r="H9">
-        <v>0.1751736562685792</v>
+        <v>1.00178330066513</v>
       </c>
       <c r="I9">
-        <v>0.2086801426872771</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="J9">
-        <v>0.2431629013079668</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="K9">
-        <v>0.2776456599286564</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="L9">
-        <v>0.312128418549346</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="M9">
-        <v>0.3466111771700358</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="N9">
-        <v>0.3810939357907255</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="O9">
-        <v>0.4155766944114151</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="P9">
-        <v>0.4500594530321047</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="Q9">
-        <v>0.4845422116527941</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="R9">
-        <v>0.5190249702734838</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="S9">
-        <v>0.5535077288941734</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="T9">
-        <v>0.5879904875148633</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="U9">
-        <v>0.622473246135553</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="V9">
-        <v>0.6569560047562424</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="W9">
-        <v>0.6914387633769317</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="X9">
-        <v>0.7259215219976215</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="Y9">
-        <v>0.7604042806183118</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="Z9">
-        <v>0.7948870392390008</v>
+        <v>1.001783590963139</v>
       </c>
       <c r="AA9">
-        <v>0.8293695075616822</v>
+        <v>1.00178330066513</v>
       </c>
       <c r="AB9">
-        <v>0.8638432669441136</v>
+        <v>1.001774301426873</v>
       </c>
       <c r="AC9">
-        <v>0.8982299369240487</v>
+        <v>1.001678212786117</v>
       </c>
       <c r="AD9">
-        <v>0.9322978596908439</v>
+        <v>1.001263376932223</v>
       </c>
       <c r="AE9">
-        <v>0.9660949344158738</v>
+        <v>1.000577693036563</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1130,88 +1130,88 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.055562167899078</v>
+        <v>1.000571596778388</v>
       </c>
       <c r="E10">
-        <v>1.180791721049161</v>
+        <v>1.00123050068278</v>
       </c>
       <c r="F10">
-        <v>0.6262649735712693</v>
+        <v>1.001820603959199</v>
       </c>
       <c r="G10">
-        <v>0.2405586378752973</v>
+        <v>1.002041665892538</v>
       </c>
       <c r="H10">
-        <v>0.1827926726460316</v>
+        <v>1.002078098292583</v>
       </c>
       <c r="I10">
-        <v>0.2092214758982983</v>
+        <v>1.00208078354916</v>
       </c>
       <c r="J10">
-        <v>0.2434601664684899</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="K10">
-        <v>0.2779429250891796</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="L10">
-        <v>0.3124256837098692</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="M10">
-        <v>0.3469084423305588</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="N10">
-        <v>0.3813912009512487</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="O10">
-        <v>0.4158739595719383</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="P10">
-        <v>0.4503567181926278</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="Q10">
-        <v>0.4848394768133172</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="R10">
-        <v>0.519322235434007</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="S10">
-        <v>0.5538049940546964</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="T10">
-        <v>0.5882877526753865</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="U10">
-        <v>0.6227705112960762</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="V10">
-        <v>0.6572532699167654</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="W10">
-        <v>0.6917360285374549</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="X10">
-        <v>0.7262187871581448</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="Y10">
-        <v>0.7607015457788345</v>
+        <v>1.002080856123662</v>
       </c>
       <c r="Z10">
-        <v>0.7951842318250221</v>
+        <v>1.00208078354916</v>
       </c>
       <c r="AA10">
-        <v>0.8296643051891344</v>
+        <v>1.002078098292583</v>
       </c>
       <c r="AB10">
-        <v>0.8641106314097794</v>
+        <v>1.002041665892538</v>
       </c>
       <c r="AC10">
-        <v>0.8983723280971313</v>
+        <v>1.001820603959199</v>
       </c>
       <c r="AD10">
-        <v>0.9322649834414014</v>
+        <v>1.00123050068278</v>
       </c>
       <c r="AE10">
-        <v>0.9660888381576992</v>
+        <v>1.000571596778388</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1225,88 +1225,88 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9821526054536547</v>
+        <v>1.000587327301715</v>
       </c>
       <c r="E11">
-        <v>1.238602972767725</v>
+        <v>1.001180424276344</v>
       </c>
       <c r="F11">
-        <v>0.936678873939832</v>
+        <v>1.001870734796511</v>
       </c>
       <c r="G11">
-        <v>0.3960532824576397</v>
+        <v>1.00226287297488</v>
       </c>
       <c r="H11">
-        <v>0.2114603811438671</v>
+        <v>1.002364459134168</v>
       </c>
       <c r="I11">
-        <v>0.2117152809388007</v>
+        <v>1.002377322964662</v>
       </c>
       <c r="J11">
-        <v>0.2438184486416376</v>
+        <v>1.002378103140559</v>
       </c>
       <c r="K11">
-        <v>0.2782401902497028</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="L11">
-        <v>0.3127229488703925</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="M11">
-        <v>0.347205707491082</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="N11">
-        <v>0.3816884661117718</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="O11">
-        <v>0.4161712247324614</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="P11">
-        <v>0.4506539833531509</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="Q11">
-        <v>0.4851367419738404</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="R11">
-        <v>0.5196195005945302</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="S11">
-        <v>0.5541022592152196</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="T11">
-        <v>0.5885850178359097</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="U11">
-        <v>0.6230677764565992</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="V11">
-        <v>0.6575505350772883</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="W11">
-        <v>0.6920332936979783</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="X11">
-        <v>0.7265160523186681</v>
+        <v>1.002378121284185</v>
       </c>
       <c r="Y11">
-        <v>0.7609987927957318</v>
+        <v>1.002378103140559</v>
       </c>
       <c r="Z11">
-        <v>0.7954807712405245</v>
+        <v>1.002377322964662</v>
       </c>
       <c r="AA11">
-        <v>0.8299506660307198</v>
+        <v>1.002364459134168</v>
       </c>
       <c r="AB11">
-        <v>0.8643318384921219</v>
+        <v>1.00226287297488</v>
       </c>
       <c r="AC11">
-        <v>0.8984224589344434</v>
+        <v>1.001870734796511</v>
       </c>
       <c r="AD11">
-        <v>0.9322149070349658</v>
+        <v>1.001180424276344</v>
       </c>
       <c r="AE11">
-        <v>0.9661045686810252</v>
+        <v>1.000587327301715</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1320,88 +1320,88 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.9773174834733349</v>
+        <v>1.00060450024327</v>
       </c>
       <c r="E12">
-        <v>1.156820607950798</v>
+        <v>1.001154651256293</v>
       </c>
       <c r="F12">
-        <v>1.18741740114482</v>
+        <v>1.001846322548374</v>
       </c>
       <c r="G12">
-        <v>0.6405560995820869</v>
+        <v>1.002411442052452</v>
       </c>
       <c r="H12">
-        <v>0.2863400399188792</v>
+        <v>1.002628639393555</v>
       </c>
       <c r="I12">
-        <v>0.222171152956279</v>
+        <v>1.002670841466515</v>
       </c>
       <c r="J12">
-        <v>0.2447563742910924</v>
+        <v>1.002675159649389</v>
       </c>
       <c r="K12">
-        <v>0.2785527096633821</v>
+        <v>1.002675381908801</v>
       </c>
       <c r="L12">
-        <v>0.3130202140309157</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="M12">
-        <v>0.3475029726516053</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="N12">
-        <v>0.3819857312722947</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="O12">
-        <v>0.4164684898929846</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="P12">
-        <v>0.450951248513674</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="Q12">
-        <v>0.4854340071343637</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="R12">
-        <v>0.5199167657550532</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="S12">
-        <v>0.554399524375743</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="T12">
-        <v>0.5888822829964326</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="U12">
-        <v>0.6233650416171221</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="V12">
-        <v>0.6578478002378115</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="W12">
-        <v>0.6923305588585017</v>
+        <v>1.002675386444708</v>
       </c>
       <c r="X12">
-        <v>0.7268133129432849</v>
+        <v>1.002675381908801</v>
       </c>
       <c r="Y12">
-        <v>0.7612958493045611</v>
+        <v>1.002675159649389</v>
       </c>
       <c r="Z12">
-        <v>0.7957742897423777</v>
+        <v>1.002670841466515</v>
       </c>
       <c r="AA12">
-        <v>0.8302148462901069</v>
+        <v>1.002628639393555</v>
       </c>
       <c r="AB12">
-        <v>0.8644804075696942</v>
+        <v>1.002411442052452</v>
       </c>
       <c r="AC12">
-        <v>0.8983980466863056</v>
+        <v>1.001846322548374</v>
       </c>
       <c r="AD12">
-        <v>0.9321891340149144</v>
+        <v>1.001154651256293</v>
       </c>
       <c r="AE12">
-        <v>0.9661217416225799</v>
+        <v>1.00060450024327</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1415,88 +1415,88 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.023028771744047</v>
+        <v>1.000608085877264</v>
       </c>
       <c r="E13">
-        <v>1.037811660313011</v>
+        <v>1.001164258306006</v>
       </c>
       <c r="F13">
-        <v>1.293791404660619</v>
+        <v>1.001790272353236</v>
       </c>
       <c r="G13">
-        <v>0.9332202271814154</v>
+        <v>1.002473030589281</v>
       </c>
       <c r="H13">
-        <v>0.4337314918690431</v>
+        <v>1.002849070835906</v>
       </c>
       <c r="I13">
-        <v>0.2543155520481106</v>
+        <v>1.002954888995847</v>
       </c>
       <c r="J13">
-        <v>0.2484970784499163</v>
+        <v>1.002971192177354</v>
       </c>
       <c r="K13">
-        <v>0.2790330213258724</v>
+        <v>1.002972588102542</v>
       </c>
       <c r="L13">
-        <v>0.313321292754728</v>
+        <v>1.002972650471254</v>
       </c>
       <c r="M13">
-        <v>0.3478002378121284</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="N13">
-        <v>0.3822829964328178</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="O13">
-        <v>0.4167657550535077</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="P13">
-        <v>0.451248513674197</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="Q13">
-        <v>0.4857312722948869</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="R13">
-        <v>0.5202140309155762</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="S13">
-        <v>0.5546967895362664</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="T13">
-        <v>0.5891795481569556</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="U13">
-        <v>0.6236623067776451</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="V13">
-        <v>0.6581450653983349</v>
+        <v>1.002972651605231</v>
       </c>
       <c r="W13">
-        <v>0.6926278228850482</v>
+        <v>1.002972650471254</v>
       </c>
       <c r="X13">
-        <v>0.727110519137025</v>
+        <v>1.002972588102542</v>
       </c>
       <c r="Y13">
-        <v>0.7615918818325254</v>
+        <v>1.002971192177354</v>
       </c>
       <c r="Z13">
-        <v>0.7960583372717092</v>
+        <v>1.002954888995847</v>
       </c>
       <c r="AA13">
-        <v>0.8304352777324583</v>
+        <v>1.002849070835906</v>
       </c>
       <c r="AB13">
-        <v>0.8645419961065226</v>
+        <v>1.002473030589281</v>
       </c>
       <c r="AC13">
-        <v>0.8983419964911672</v>
+        <v>1.001790272353236</v>
       </c>
       <c r="AD13">
-        <v>0.9321987410646272</v>
+        <v>1.001164258306006</v>
       </c>
       <c r="AE13">
-        <v>0.9661253272565731</v>
+        <v>1.000608085877264</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1510,88 +1510,88 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.066678589220988</v>
+        <v>1.000598693149127</v>
       </c>
       <c r="E14">
-        <v>0.9791019266198848</v>
+        <v>1.001191325760341</v>
       </c>
       <c r="F14">
-        <v>1.246027677719715</v>
+        <v>1.001748408205302</v>
       </c>
       <c r="G14">
-        <v>1.191154965322452</v>
+        <v>1.002457939628754</v>
       </c>
       <c r="H14">
-        <v>0.661141142692067</v>
+        <v>1.003001946756586</v>
       </c>
       <c r="I14">
-        <v>0.3298593176956268</v>
+        <v>1.00321655778057</v>
       </c>
       <c r="J14">
-        <v>0.2613263867272779</v>
+        <v>1.003263497891238</v>
       </c>
       <c r="K14">
-        <v>0.2804514151265876</v>
+        <v>1.003269460907163</v>
       </c>
       <c r="L14">
-        <v>0.3136700398856765</v>
+        <v>1.003269899189117</v>
       </c>
       <c r="M14">
-        <v>0.3480984563634738</v>
+        <v>1.00326991648226</v>
       </c>
       <c r="N14">
-        <v>0.382580261593341</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="O14">
-        <v>0.4170630202140307</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="P14">
-        <v>0.4515457788347202</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="Q14">
-        <v>0.4860285374554099</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="R14">
-        <v>0.5205112960760994</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="S14">
-        <v>0.5549940546967896</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="T14">
-        <v>0.5894768133174788</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="U14">
-        <v>0.6239595719381683</v>
+        <v>1.003269916765754</v>
       </c>
       <c r="V14">
-        <v>0.6584423302753643</v>
+        <v>1.00326991648226</v>
       </c>
       <c r="W14">
-        <v>0.6929250716029106</v>
+        <v>1.003269899189117</v>
       </c>
       <c r="X14">
-        <v>0.7274073919416458</v>
+        <v>1.003269460907163</v>
       </c>
       <c r="Y14">
-        <v>0.7618841875464105</v>
+        <v>1.003263497891238</v>
       </c>
       <c r="Z14">
-        <v>0.7963200060564318</v>
+        <v>1.00321655778057</v>
       </c>
       <c r="AA14">
-        <v>0.8305881536531385</v>
+        <v>1.003001946756586</v>
       </c>
       <c r="AB14">
-        <v>0.8645269051459959</v>
+        <v>1.002457939628754</v>
       </c>
       <c r="AC14">
-        <v>0.8983001323432326</v>
+        <v>1.001748408205302</v>
       </c>
       <c r="AD14">
-        <v>0.9322258085189614</v>
+        <v>1.001191325760341</v>
       </c>
       <c r="AE14">
-        <v>0.9661159345284366</v>
+        <v>1.000598693149127</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -1605,88 +1605,88 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.071764593742407</v>
+        <v>1.000587785286512</v>
       </c>
       <c r="E15">
-        <v>1.009017796351993</v>
+        <v>1.001209505673113</v>
       </c>
       <c r="F15">
-        <v>1.117814334904538</v>
+        <v>1.00174465630199</v>
       </c>
       <c r="G15">
-        <v>1.330304425905208</v>
+        <v>1.002401467594322</v>
       </c>
       <c r="H15">
-        <v>0.9382337929235771</v>
+        <v>1.003072473651304</v>
       </c>
       <c r="I15">
-        <v>0.4710903068501657</v>
+        <v>1.003436308836965</v>
       </c>
       <c r="J15">
-        <v>0.2960701848465541</v>
+        <v>1.003545559331437</v>
       </c>
       <c r="K15">
-        <v>0.2853932080172475</v>
+        <v>1.003564952528291</v>
       </c>
       <c r="L15">
-        <v>0.3143212349463021</v>
+        <v>1.003567042659776</v>
       </c>
       <c r="M15">
-        <v>0.3484100221028367</v>
+        <v>1.003567177106877</v>
       </c>
       <c r="N15">
-        <v>0.3828777651015698</v>
+        <v>1.003567181855404</v>
       </c>
       <c r="O15">
-        <v>0.4173602853745538</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="P15">
-        <v>0.4518430439952434</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="Q15">
-        <v>0.4863258026159327</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="R15">
-        <v>0.5208085612366228</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="S15">
-        <v>0.5552913198573126</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="T15">
-        <v>0.589774078478002</v>
+        <v>1.003567181926277</v>
       </c>
       <c r="U15">
-        <v>0.624256837027818</v>
+        <v>1.003567181855404</v>
       </c>
       <c r="V15">
-        <v>0.6587395908999811</v>
+        <v>1.003567177106877</v>
       </c>
       <c r="W15">
-        <v>0.6932222150735703</v>
+        <v>1.003567042659776</v>
       </c>
       <c r="X15">
-        <v>0.7277028835627742</v>
+        <v>1.003564952528291</v>
       </c>
       <c r="Y15">
-        <v>0.7621662489866097</v>
+        <v>1.003545559331437</v>
       </c>
       <c r="Z15">
-        <v>0.7965397571128259</v>
+        <v>1.003436308836965</v>
       </c>
       <c r="AA15">
-        <v>0.8306586805478563</v>
+        <v>1.003072473651304</v>
       </c>
       <c r="AB15">
-        <v>0.864470433111564</v>
+        <v>1.002401467594322</v>
       </c>
       <c r="AC15">
-        <v>0.8982963804399209</v>
+        <v>1.00174465630199</v>
       </c>
       <c r="AD15">
-        <v>0.9322439884317321</v>
+        <v>1.001209505673113</v>
       </c>
       <c r="AE15">
-        <v>0.966105026665822</v>
+        <v>1.000587785286512</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -1700,88 +1700,88 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.04322275048062</v>
+        <v>1.000585361198919</v>
       </c>
       <c r="E16">
-        <v>1.081819500069841</v>
+        <v>1.001206043146454</v>
       </c>
       <c r="F16">
-        <v>1.015524380201392</v>
+        <v>1.001771319564543</v>
       </c>
       <c r="G16">
-        <v>1.318313705492389</v>
+        <v>1.002348544251053</v>
       </c>
       <c r="H16">
-        <v>1.196558229882142</v>
+        <v>1.003066207828192</v>
       </c>
       <c r="I16">
-        <v>0.6853521370221545</v>
+        <v>1.003592413720563</v>
       </c>
       <c r="J16">
-        <v>0.3718997692594065</v>
+        <v>1.003805156447231</v>
       </c>
       <c r="K16">
-        <v>0.3002362518474979</v>
+        <v>1.003856118383077</v>
       </c>
       <c r="L16">
-        <v>0.3162626200637977</v>
+        <v>1.00386369720934</v>
       </c>
       <c r="M16">
-        <v>0.3488163268027491</v>
+        <v>1.00386440530685</v>
       </c>
       <c r="N16">
-        <v>0.3831789629283613</v>
+        <v>1.00386444577564</v>
       </c>
       <c r="O16">
-        <v>0.4176576101220033</v>
+        <v>1.003864447069082</v>
       </c>
       <c r="P16">
-        <v>0.4521403091557665</v>
+        <v>1.0038644470868</v>
       </c>
       <c r="Q16">
-        <v>0.4866230677764558</v>
+        <v>1.0038644470868</v>
       </c>
       <c r="R16">
-        <v>0.5211058263971462</v>
+        <v>1.0038644470868</v>
       </c>
       <c r="S16">
-        <v>0.5555885850178356</v>
+        <v>1.0038644470868</v>
       </c>
       <c r="T16">
-        <v>0.5900713436208067</v>
+        <v>1.003864447069082</v>
       </c>
       <c r="U16">
-        <v>0.6245541009480544</v>
+        <v>1.00386444577564</v>
       </c>
       <c r="V16">
-        <v>0.6590368190999544</v>
+        <v>1.00386440530685</v>
       </c>
       <c r="W16">
-        <v>0.6935188696231337</v>
+        <v>1.00386369720934</v>
       </c>
       <c r="X16">
-        <v>0.7279940494175604</v>
+        <v>1.003856118383077</v>
       </c>
       <c r="Y16">
-        <v>0.7624258461024039</v>
+        <v>1.003805156447231</v>
       </c>
       <c r="Z16">
-        <v>0.7966958619964234</v>
+        <v>1.003592413720563</v>
       </c>
       <c r="AA16">
-        <v>0.8306524147247434</v>
+        <v>1.003066207828192</v>
       </c>
       <c r="AB16">
-        <v>0.8644175097682941</v>
+        <v>1.002348544251053</v>
       </c>
       <c r="AC16">
-        <v>0.8983230437024728</v>
+        <v>1.001771319564543</v>
       </c>
       <c r="AD16">
-        <v>0.9322405259050723</v>
+        <v>1.001206043146454</v>
       </c>
       <c r="AE16">
-        <v>0.9661026025782292</v>
+        <v>1.000585361198919</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -1795,88 +1795,88 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.013524406995983</v>
+        <v>1.00059176729848</v>
       </c>
       <c r="E17">
-        <v>1.128398236423271</v>
+        <v>1.001188729237433</v>
       </c>
       <c r="F17">
-        <v>1.005505536788107</v>
+        <v>1.0018009698942</v>
       </c>
       <c r="G17">
-        <v>1.200186784854259</v>
+        <v>1.002330730630441</v>
       </c>
       <c r="H17">
-        <v>1.357520012528272</v>
+        <v>1.003012077583887</v>
       </c>
       <c r="I17">
-        <v>0.9490523984684531</v>
+        <v>1.003670152812735</v>
       </c>
       <c r="J17">
-        <v>0.5081765662599688</v>
+        <v>1.004024308365319</v>
       </c>
       <c r="K17">
-        <v>0.3370017670848003</v>
+        <v>1.004136438460467</v>
       </c>
       <c r="L17">
-        <v>0.3223358398119562</v>
+        <v>1.004158634076715</v>
       </c>
       <c r="M17">
-        <v>0.3496748638493267</v>
+        <v>1.004161466599643</v>
       </c>
       <c r="N17">
-        <v>0.3835091635221602</v>
+        <v>1.004161699902039</v>
       </c>
       <c r="O17">
-        <v>0.4179559478294831</v>
+        <v>1.004161711892956</v>
       </c>
       <c r="P17">
-        <v>0.4524375892130211</v>
+        <v>1.004161712242893</v>
       </c>
       <c r="Q17">
-        <v>0.4869203329369791</v>
+        <v>1.004161712247323</v>
       </c>
       <c r="R17">
-        <v>0.5214030915576694</v>
+        <v>1.004161712247323</v>
       </c>
       <c r="S17">
-        <v>0.555885850173929</v>
+        <v>1.004161712242893</v>
       </c>
       <c r="T17">
-        <v>0.5903686084446805</v>
+        <v>1.004161711892956</v>
       </c>
       <c r="U17">
-        <v>0.6248513550744538</v>
+        <v>1.004161699902039</v>
       </c>
       <c r="V17">
-        <v>0.6593338803927473</v>
+        <v>1.004161466599643</v>
       </c>
       <c r="W17">
-        <v>0.6938138064905091</v>
+        <v>1.004158634076715</v>
       </c>
       <c r="X17">
-        <v>0.7282743694949506</v>
+        <v>1.004136438460467</v>
       </c>
       <c r="Y17">
-        <v>0.7626449980204921</v>
+        <v>1.004024308365319</v>
       </c>
       <c r="Z17">
-        <v>0.796773601088596</v>
+        <v>1.003670152812735</v>
       </c>
       <c r="AA17">
-        <v>0.8305982844804382</v>
+        <v>1.003012077583887</v>
       </c>
       <c r="AB17">
-        <v>0.8643996961476812</v>
+        <v>1.002330730630441</v>
       </c>
       <c r="AC17">
-        <v>0.89835269403213</v>
+        <v>1.0018009698942</v>
       </c>
       <c r="AD17">
-        <v>0.932223211996052</v>
+        <v>1.001188729237433</v>
       </c>
       <c r="AE17">
-        <v>0.9661090086777899</v>
+        <v>1.00059176729848</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -1890,88 +1890,88 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.009163419119172</v>
+        <v>1.000599472058159</v>
       </c>
       <c r="E18">
-        <v>1.115535340511089</v>
+        <v>1.001175235007866</v>
       </c>
       <c r="F18">
-        <v>1.074880180300151</v>
+        <v>1.001810000243726</v>
       </c>
       <c r="G18">
-        <v>1.072722859118095</v>
+        <v>1.002350813564131</v>
       </c>
       <c r="H18">
-        <v>1.377031584740944</v>
+        <v>1.002952129408433</v>
       </c>
       <c r="I18">
-        <v>1.204650605377586</v>
+        <v>1.003671911985841</v>
       </c>
       <c r="J18">
-        <v>0.7118786215188597</v>
+        <v>1.004182953919048</v>
       </c>
       <c r="K18">
-        <v>0.4128945002976838</v>
+        <v>1.004394274918132</v>
       </c>
       <c r="L18">
-        <v>0.3389102973876683</v>
+        <v>1.004448730170761</v>
       </c>
       <c r="M18">
-        <v>0.3521572198047701</v>
+        <v>1.004457878087303</v>
       </c>
       <c r="N18">
-        <v>0.3839924852745814</v>
+        <v>1.004458898700569</v>
       </c>
       <c r="O18">
-        <v>0.4182629998060168</v>
+        <v>1.004458973806585</v>
       </c>
       <c r="P18">
-        <v>0.4527351448553807</v>
+        <v>1.00445897731261</v>
       </c>
       <c r="Q18">
-        <v>0.4872176018216855</v>
+        <v>1.004458977406739</v>
       </c>
       <c r="R18">
-        <v>0.5217003567170848</v>
+        <v>1.004458977406739</v>
       </c>
       <c r="S18">
-        <v>0.5561831152436455</v>
+        <v>1.00445897731261</v>
       </c>
       <c r="T18">
-        <v>0.5906658703583099</v>
+        <v>1.004458973806585</v>
       </c>
       <c r="U18">
-        <v>0.6251485538729831</v>
+        <v>1.004458898700569</v>
       </c>
       <c r="V18">
-        <v>0.6596302918804074</v>
+        <v>1.004457878087303</v>
       </c>
       <c r="W18">
-        <v>0.6941039025845545</v>
+        <v>1.004448730170761</v>
       </c>
       <c r="X18">
-        <v>0.7285322059526157</v>
+        <v>1.004394274918132</v>
       </c>
       <c r="Y18">
-        <v>0.762803643574221</v>
+        <v>1.004182953919048</v>
       </c>
       <c r="Z18">
-        <v>0.7967753602617033</v>
+        <v>1.003671911985841</v>
       </c>
       <c r="AA18">
-        <v>0.8305383363049832</v>
+        <v>1.002952129408433</v>
       </c>
       <c r="AB18">
-        <v>0.8644197790813696</v>
+        <v>1.002350813564131</v>
       </c>
       <c r="AC18">
-        <v>0.8983617243816556</v>
+        <v>1.001810000243726</v>
       </c>
       <c r="AD18">
-        <v>0.9322097177664859</v>
+        <v>1.001175235007866</v>
       </c>
       <c r="AE18">
-        <v>0.9661167134374687</v>
+        <v>1.000599472058159</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -1985,88 +1985,88 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.029104556810548</v>
+        <v>1.000601249540725</v>
       </c>
       <c r="E19">
-        <v>1.065915674198193</v>
+        <v>1.001176491349837</v>
       </c>
       <c r="F19">
-        <v>1.153879283569416</v>
+        <v>1.001795542614388</v>
       </c>
       <c r="G19">
-        <v>1.021875445083157</v>
+        <v>1.002386022128794</v>
       </c>
       <c r="H19">
-        <v>1.277370730707064</v>
+        <v>1.002921797916255</v>
       </c>
       <c r="I19">
-        <v>1.380151061162876</v>
+        <v>1.003621485997897</v>
       </c>
       <c r="J19">
-        <v>0.964027642437138</v>
+        <v>1.004266669239247</v>
       </c>
       <c r="K19">
-        <v>0.5450372130883575</v>
+        <v>1.004612894939183</v>
       </c>
       <c r="L19">
-        <v>0.3772925362951597</v>
+        <v>1.004727499430785</v>
       </c>
       <c r="M19">
-        <v>0.3592866615233911</v>
+        <v>1.004752257749144</v>
       </c>
       <c r="N19">
-        <v>0.3850846192924086</v>
+        <v>1.004755861122286</v>
       </c>
       <c r="O19">
-        <v>0.4186204594120326</v>
+        <v>1.004756217820217</v>
       </c>
       <c r="P19">
-        <v>0.4530352784769756</v>
+        <v>1.004756241529352</v>
       </c>
       <c r="Q19">
-        <v>0.4875149451886654</v>
+        <v>1.004756242542622</v>
       </c>
       <c r="R19">
-        <v>0.5219976227842905</v>
+        <v>1.004756242542622</v>
       </c>
       <c r="S19">
-        <v>0.5564803794603879</v>
+        <v>1.004756241529352</v>
       </c>
       <c r="T19">
-        <v>0.5909631143719415</v>
+        <v>1.004756217820217</v>
       </c>
       <c r="U19">
-        <v>0.6254455162947</v>
+        <v>1.004755861122286</v>
       </c>
       <c r="V19">
-        <v>0.6599246715422484</v>
+        <v>1.004752257749144</v>
       </c>
       <c r="W19">
-        <v>0.6943826718445785</v>
+        <v>1.004727499430785</v>
       </c>
       <c r="X19">
-        <v>0.7287508259736669</v>
+        <v>1.004612894939183</v>
       </c>
       <c r="Y19">
-        <v>0.7628873588944192</v>
+        <v>1.004266669239247</v>
       </c>
       <c r="Z19">
-        <v>0.7967249342737601</v>
+        <v>1.003621485997897</v>
       </c>
       <c r="AA19">
-        <v>0.830508004812805</v>
+        <v>1.002921797916255</v>
       </c>
       <c r="AB19">
-        <v>0.8644549876460328</v>
+        <v>1.002386022128794</v>
       </c>
       <c r="AC19">
-        <v>0.8983472667523174</v>
+        <v>1.001795542614388</v>
       </c>
       <c r="AD19">
-        <v>0.932210974108458</v>
+        <v>1.001176491349837</v>
       </c>
       <c r="AE19">
-        <v>0.9661184909200347</v>
+        <v>1.000601249540725</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2080,88 +2080,88 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1.050972334646198</v>
+        <v>1.000596525090388</v>
       </c>
       <c r="E20">
-        <v>1.029084130881192</v>
+        <v>1.001188700055668</v>
       </c>
       <c r="F20">
-        <v>1.17788652487431</v>
+        <v>1.001773942047514</v>
       </c>
       <c r="G20">
-        <v>1.06790281207576</v>
+        <v>1.002407554761722</v>
       </c>
       <c r="H20">
-        <v>1.13953113788116</v>
+        <v>1.002932444497623</v>
       </c>
       <c r="I20">
-        <v>1.42592557965278</v>
+        <v>1.00355743379988</v>
       </c>
       <c r="J20">
-        <v>1.215459910699656</v>
+        <v>1.004275645174092</v>
       </c>
       <c r="K20">
-        <v>0.739991364017927</v>
+        <v>1.004773609658151</v>
       </c>
       <c r="L20">
-        <v>0.4531094757080084</v>
+        <v>1.004983807147498</v>
       </c>
       <c r="M20">
-        <v>0.3773670613772084</v>
+        <v>1.005041348674681</v>
       </c>
       <c r="N20">
-        <v>0.3881112238978874</v>
+        <v>1.0050520118752</v>
       </c>
       <c r="O20">
-        <v>0.4191976637543781</v>
+        <v>1.005053378586649</v>
       </c>
       <c r="P20">
-        <v>0.4533516240102572</v>
+        <v>1.005053500072128</v>
       </c>
       <c r="Q20">
-        <v>0.4878130412766292</v>
+        <v>1.005053507425188</v>
       </c>
       <c r="R20">
-        <v>0.5222949086216142</v>
+        <v>1.005053507425188</v>
       </c>
       <c r="S20">
-        <v>0.5567776382359942</v>
+        <v>1.005053500072128</v>
       </c>
       <c r="T20">
-        <v>0.5912602751383744</v>
+        <v>1.005053378586649</v>
       </c>
       <c r="U20">
-        <v>0.6257416670476146</v>
+        <v>1.0050520118752</v>
       </c>
       <c r="V20">
-        <v>0.6602137624677847</v>
+        <v>1.005041348674681</v>
       </c>
       <c r="W20">
-        <v>0.6946389795612923</v>
+        <v>1.004983807147498</v>
       </c>
       <c r="X20">
-        <v>0.728911540692634</v>
+        <v>1.004773609658151</v>
       </c>
       <c r="Y20">
-        <v>0.7628963348292644</v>
+        <v>1.004275645174092</v>
       </c>
       <c r="Z20">
-        <v>0.7966608820757431</v>
+        <v>1.00355743379988</v>
       </c>
       <c r="AA20">
-        <v>0.8305186513941725</v>
+        <v>1.002932444497623</v>
       </c>
       <c r="AB20">
-        <v>0.8644765202789603</v>
+        <v>1.002407554761722</v>
       </c>
       <c r="AC20">
-        <v>0.8983256661854432</v>
+        <v>1.001773942047514</v>
       </c>
       <c r="AD20">
-        <v>0.9322231828142893</v>
+        <v>1.001188700055668</v>
       </c>
       <c r="AE20">
-        <v>0.9661137664696978</v>
+        <v>1.000596525090388</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2175,88 +2175,88 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.054624977879046</v>
+        <v>1.000590713108774</v>
       </c>
       <c r="E21">
-        <v>1.034925237003721</v>
+        <v>1.00119917551814</v>
       </c>
       <c r="F21">
-        <v>1.137197239481287</v>
+        <v>1.00176443416123</v>
       </c>
       <c r="G21">
-        <v>1.159333188719351</v>
+        <v>1.002401906650072</v>
       </c>
       <c r="H21">
-        <v>1.055383074046811</v>
+        <v>1.002968115970579</v>
       </c>
       <c r="I21">
-        <v>1.347485070461497</v>
+        <v>1.003516687119852</v>
       </c>
       <c r="J21">
-        <v>1.400641459530022</v>
+        <v>1.004229559386399</v>
       </c>
       <c r="K21">
-        <v>0.9820921795404493</v>
+        <v>1.00486238262844</v>
       </c>
       <c r="L21">
-        <v>0.5817112836156366</v>
+        <v>1.00520195087367</v>
       </c>
       <c r="M21">
-        <v>0.4170691054438956</v>
+        <v>1.005318720018552</v>
       </c>
       <c r="N21">
-        <v>0.3962233978373192</v>
+        <v>1.005345838505847</v>
       </c>
       <c r="O21">
-        <v>0.4205417481965706</v>
+        <v>1.005350228046589</v>
       </c>
       <c r="P21">
-        <v>0.453744833796162</v>
+        <v>1.0053507300818</v>
       </c>
       <c r="Q21">
-        <v>0.4881162498842461</v>
+        <v>1.005350770469489</v>
       </c>
       <c r="R21">
-        <v>0.5225924100262868</v>
+        <v>1.005350770469489</v>
       </c>
       <c r="S21">
-        <v>0.5570748738336007</v>
+        <v>1.0053507300818</v>
       </c>
       <c r="T21">
-        <v>0.5915571246565224</v>
+        <v>1.005350228046589</v>
       </c>
       <c r="U21">
-        <v>0.6260354936782616</v>
+        <v>1.005345838505847</v>
       </c>
       <c r="V21">
-        <v>0.6604911338116553</v>
+        <v>1.005318720018552</v>
       </c>
       <c r="W21">
-        <v>0.6948571232874645</v>
+        <v>1.00520195087367</v>
       </c>
       <c r="X21">
-        <v>0.7290003136629232</v>
+        <v>1.00486238262844</v>
       </c>
       <c r="Y21">
-        <v>0.7628502490415718</v>
+        <v>1.004229559386399</v>
       </c>
       <c r="Z21">
-        <v>0.7966201353957139</v>
+        <v>1.003516687119852</v>
       </c>
       <c r="AA21">
-        <v>0.8305543228671296</v>
+        <v>1.002968115970579</v>
       </c>
       <c r="AB21">
-        <v>0.8644708721673118</v>
+        <v>1.002401906650072</v>
       </c>
       <c r="AC21">
-        <v>0.8983161582991599</v>
+        <v>1.00176443416123</v>
       </c>
       <c r="AD21">
-        <v>0.9322336582767611</v>
+        <v>1.00119917551814</v>
       </c>
       <c r="AE21">
-        <v>0.9661079544880844</v>
+        <v>1.000590713108774</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2270,88 +2270,88 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1.039696441423302</v>
+        <v>1.000589338452308</v>
       </c>
       <c r="E22">
-        <v>1.071259278964473</v>
+        <v>1.001198850039043</v>
       </c>
       <c r="F22">
-        <v>1.076473940778388</v>
+        <v>1.001772979736384</v>
       </c>
       <c r="G22">
-        <v>1.219242049385291</v>
+        <v>1.002378442746339</v>
       </c>
       <c r="H22">
-        <v>1.070248037984268</v>
+        <v>1.002999377900727</v>
       </c>
       <c r="I22">
-        <v>1.209308159433674</v>
+        <v>1.003517015719142</v>
       </c>
       <c r="J22">
-        <v>1.467896591095864</v>
+        <v>1.00416346134258</v>
       </c>
       <c r="K22">
-        <v>1.228735091079161</v>
+        <v>1.004877841849527</v>
       </c>
       <c r="L22">
-        <v>0.7692477709615327</v>
+        <v>1.005364394824755</v>
       </c>
       <c r="M22">
-        <v>0.492720267151874</v>
+        <v>1.005573678698026</v>
       </c>
       <c r="N22">
-        <v>0.4156265862682079</v>
+        <v>1.005633982899855</v>
       </c>
       <c r="O22">
-        <v>0.4241070164488481</v>
+        <v>1.005646105630146</v>
       </c>
       <c r="P22">
-        <v>0.45443012620419</v>
+        <v>1.005647844679591</v>
       </c>
       <c r="Q22">
-        <v>0.4884456445053521</v>
+        <v>1.005648023416867</v>
       </c>
       <c r="R22">
-        <v>0.5228914873472776</v>
+        <v>1.005648023416867</v>
       </c>
       <c r="S22">
-        <v>0.5573720561851091</v>
+        <v>1.005647844679591</v>
       </c>
       <c r="T22">
-        <v>0.5918530037243748</v>
+        <v>1.005646105630146</v>
       </c>
       <c r="U22">
-        <v>0.6263236380868222</v>
+        <v>1.005633982899855</v>
       </c>
       <c r="V22">
-        <v>0.6607460924911296</v>
+        <v>1.005573678698026</v>
       </c>
       <c r="W22">
-        <v>0.6950195672385492</v>
+        <v>1.005364394824755</v>
       </c>
       <c r="X22">
-        <v>0.7290157728840098</v>
+        <v>1.004877841849527</v>
       </c>
       <c r="Y22">
-        <v>0.7627841509977528</v>
+        <v>1.00416346134258</v>
       </c>
       <c r="Z22">
-        <v>0.7966204639950029</v>
+        <v>1.003517015719142</v>
       </c>
       <c r="AA22">
-        <v>0.8305855847972783</v>
+        <v>1.002999377900727</v>
       </c>
       <c r="AB22">
-        <v>0.8644474082635799</v>
+        <v>1.002378442746339</v>
       </c>
       <c r="AC22">
-        <v>0.8983247038743148</v>
+        <v>1.001772979736384</v>
       </c>
       <c r="AD22">
-        <v>0.9322333327976633</v>
+        <v>1.001198850039043</v>
       </c>
       <c r="AE22">
-        <v>0.9661065798316192</v>
+        <v>1.000589338452308</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2365,88 +2365,88 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1.022734503997025</v>
+        <v>1.000593007079449</v>
       </c>
       <c r="E23">
-        <v>1.101006276993411</v>
+        <v>1.001189679087598</v>
       </c>
       <c r="F23">
-        <v>1.050139003773737</v>
+        <v>1.001789358639692</v>
       </c>
       <c r="G23">
-        <v>1.20621038004925</v>
+        <v>1.002358846878714</v>
       </c>
       <c r="H23">
-        <v>1.157126535134333</v>
+        <v>1.003004815496881</v>
       </c>
       <c r="I23">
-        <v>1.101013325959047</v>
+        <v>1.003549546269688</v>
       </c>
       <c r="J23">
-        <v>1.410714239741983</v>
+        <v>1.004114347019638</v>
       </c>
       <c r="K23">
-        <v>1.420296547592642</v>
+        <v>1.004836344187684</v>
       </c>
       <c r="L23">
-        <v>1.002524212384421</v>
+        <v>1.005457521500351</v>
       </c>
       <c r="M23">
-        <v>0.6182298845913504</v>
+        <v>1.00579139245964</v>
       </c>
       <c r="N23">
-        <v>0.4564233024651733</v>
+        <v>1.005910081925979</v>
       </c>
       <c r="O23">
-        <v>0.433132954594801</v>
+        <v>1.005939387293492</v>
       </c>
       <c r="P23">
-        <v>0.4560385207486729</v>
+        <v>1.00594456919934</v>
       </c>
       <c r="Q23">
-        <v>0.488882620261649</v>
+        <v>1.005945231679926</v>
       </c>
       <c r="R23">
-        <v>0.5231992461672451</v>
+        <v>1.005945231679926</v>
       </c>
       <c r="S23">
-        <v>0.5576693332119762</v>
+        <v>1.00594456919934</v>
       </c>
       <c r="T23">
-        <v>0.5921463044980227</v>
+        <v>1.005939387293492</v>
       </c>
       <c r="U23">
-        <v>0.626599737505848</v>
+        <v>1.005910081925979</v>
       </c>
       <c r="V23">
-        <v>0.6609638062563818</v>
+        <v>1.00579139245964</v>
       </c>
       <c r="W23">
-        <v>0.6951126939141441</v>
+        <v>1.005457521500351</v>
       </c>
       <c r="X23">
-        <v>0.728974275222167</v>
+        <v>1.004836344187684</v>
       </c>
       <c r="Y23">
-        <v>0.7627350366748105</v>
+        <v>1.004114347019638</v>
       </c>
       <c r="Z23">
-        <v>0.7966529945455483</v>
+        <v>1.003549546269688</v>
       </c>
       <c r="AA23">
-        <v>0.8305910223934335</v>
+        <v>1.003004815496881</v>
       </c>
       <c r="AB23">
-        <v>0.8644278123959563</v>
+        <v>1.002358846878714</v>
       </c>
       <c r="AC23">
-        <v>0.898341082777623</v>
+        <v>1.001789358639692</v>
       </c>
       <c r="AD23">
-        <v>0.9322241618462174</v>
+        <v>1.001189679087598</v>
       </c>
       <c r="AE23">
-        <v>0.9661102484587603</v>
+        <v>1.000593007079449</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2460,88 +2460,88 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1.019656883820588</v>
+        <v>1.000597591938765</v>
       </c>
       <c r="E24">
-        <v>1.098468513468335</v>
+        <v>1.001181260022139</v>
       </c>
       <c r="F24">
-        <v>1.075538729142882</v>
+        <v>1.001798189714731</v>
       </c>
       <c r="G24">
-        <v>1.141889905415602</v>
+        <v>1.002358371105875</v>
       </c>
       <c r="H24">
-        <v>1.242247691219306</v>
+        <v>1.002984943631696</v>
       </c>
       <c r="I24">
-        <v>1.084172023223976</v>
+        <v>1.00358709431452</v>
       </c>
       <c r="J24">
-        <v>1.278502236905033</v>
+        <v>1.00410453180122</v>
       </c>
       <c r="K24">
-        <v>1.505019343341404</v>
+        <v>1.004769641561996</v>
       </c>
       <c r="L24">
-        <v>1.244170155661097</v>
+        <v>1.005478821587602</v>
       </c>
       <c r="M24">
-        <v>0.7993614384475503</v>
+        <v>1.005955310848016</v>
       </c>
       <c r="N24">
-        <v>0.5318490772260898</v>
+        <v>1.006163834927397</v>
       </c>
       <c r="O24">
-        <v>0.453707871246815</v>
+        <v>1.006226638091421</v>
       </c>
       <c r="P24">
-        <v>0.4601315486329318</v>
+        <v>1.006240163862774</v>
       </c>
       <c r="Q24">
-        <v>0.4896877276161009</v>
+        <v>1.006242274322839</v>
       </c>
       <c r="R24">
-        <v>0.5235453702719963</v>
+        <v>1.006242274322839</v>
       </c>
       <c r="S24">
-        <v>0.5579683312991722</v>
+        <v>1.006240163862774</v>
       </c>
       <c r="T24">
-        <v>0.5924337207021153</v>
+        <v>1.006226638091421</v>
       </c>
       <c r="U24">
-        <v>0.6268534958605509</v>
+        <v>1.006163834927397</v>
       </c>
       <c r="V24">
-        <v>0.6611277247484412</v>
+        <v>1.005955310848016</v>
       </c>
       <c r="W24">
-        <v>0.6951339940023044</v>
+        <v>1.005478821587602</v>
       </c>
       <c r="X24">
-        <v>0.7289075725964794</v>
+        <v>1.004769641561996</v>
       </c>
       <c r="Y24">
-        <v>0.7627252214563917</v>
+        <v>1.00410453180122</v>
       </c>
       <c r="Z24">
-        <v>0.7966905425903806</v>
+        <v>1.00358709431452</v>
       </c>
       <c r="AA24">
-        <v>0.830571150528248</v>
+        <v>1.002984943631696</v>
       </c>
       <c r="AB24">
-        <v>0.8644273366231189</v>
+        <v>1.002358371105875</v>
       </c>
       <c r="AC24">
-        <v>0.8983499138526631</v>
+        <v>1.001798189714731</v>
       </c>
       <c r="AD24">
-        <v>0.9322157427807585</v>
+        <v>1.001181260022139</v>
       </c>
       <c r="AE24">
-        <v>0.9661148333180755</v>
+        <v>1.000597591938765</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2555,88 +2555,88 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1.031367950100941</v>
+        <v>1.000598695834233</v>
       </c>
       <c r="E25">
-        <v>1.070495396449958</v>
+        <v>1.001181156358984</v>
       </c>
       <c r="F25">
-        <v>1.123258694661571</v>
+        <v>1.001792833714408</v>
       </c>
       <c r="G25">
-        <v>1.0860710831647</v>
+        <v>1.002374493116706</v>
       </c>
       <c r="H25">
-        <v>1.262760483854519</v>
+        <v>1.002958966305762</v>
       </c>
       <c r="I25">
-        <v>1.155432190908001</v>
+        <v>1.003603464060321</v>
       </c>
       <c r="J25">
-        <v>1.15433695725691</v>
+        <v>1.004131634651321</v>
       </c>
       <c r="K25">
-        <v>1.467900565560995</v>
+        <v>1.004713956502516</v>
       </c>
       <c r="L25">
-        <v>1.439826216554463</v>
+        <v>1.005441948983556</v>
       </c>
       <c r="M25">
-        <v>1.024817081301772</v>
+        <v>1.006052237941134</v>
       </c>
       <c r="N25">
-        <v>0.6546176407975527</v>
+        <v>1.006381157699976</v>
       </c>
       <c r="O25">
-        <v>0.4954240087401769</v>
+        <v>1.006501569541183</v>
       </c>
       <c r="P25">
-        <v>0.4700077019164538</v>
+        <v>1.006532904698385</v>
       </c>
       <c r="Q25">
-        <v>0.4915682008887343</v>
+        <v>1.006538789350735</v>
       </c>
       <c r="R25">
-        <v>0.5240328239695676</v>
+        <v>1.006538789350735</v>
       </c>
       <c r="S25">
-        <v>0.5582779364803101</v>
+        <v>1.006532904698385</v>
       </c>
       <c r="T25">
-        <v>0.5927097333450809</v>
+        <v>1.006501569541183</v>
       </c>
       <c r="U25">
-        <v>0.6270708676476177</v>
+        <v>1.006381157699976</v>
       </c>
       <c r="V25">
-        <v>0.6612246533319937</v>
+        <v>1.006052237941134</v>
       </c>
       <c r="W25">
-        <v>0.6950971214255426</v>
+        <v>1.005441948983556</v>
       </c>
       <c r="X25">
-        <v>0.7288518875372262</v>
+        <v>1.004713956502516</v>
       </c>
       <c r="Y25">
-        <v>0.762752324306492</v>
+        <v>1.004131634651321</v>
       </c>
       <c r="Z25">
-        <v>0.7967069123361827</v>
+        <v>1.003603464060321</v>
       </c>
       <c r="AA25">
-        <v>0.8305451732023134</v>
+        <v>1.002958966305762</v>
       </c>
       <c r="AB25">
-        <v>0.8644434586339498</v>
+        <v>1.002374493116706</v>
       </c>
       <c r="AC25">
-        <v>0.898344557852341</v>
+        <v>1.001792833714408</v>
       </c>
       <c r="AD25">
-        <v>0.932215639117605</v>
+        <v>1.001181156358984</v>
       </c>
       <c r="AE25">
-        <v>0.9661159372135426</v>
+        <v>1.000598695834233</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -2650,88 +2650,88 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1.045018890443313</v>
+        <v>1.00059574090233</v>
       </c>
       <c r="E26">
-        <v>1.04593124239723</v>
+        <v>1.001188356903498</v>
       </c>
       <c r="F26">
-        <v>1.148490932753138</v>
+        <v>1.001779973225804</v>
       </c>
       <c r="G26">
-        <v>1.08372151396047</v>
+        <v>1.002391318574226</v>
       </c>
       <c r="H26">
-        <v>1.212268853080649</v>
+        <v>1.002947995121203</v>
       </c>
       <c r="I26">
-        <v>1.253250623415884</v>
+        <v>1.003590752015232</v>
       </c>
       <c r="J26">
-        <v>1.108836388097582</v>
+        <v>1.004172275316471</v>
       </c>
       <c r="K26">
-        <v>1.345372298452932</v>
+        <v>1.004694689100497</v>
       </c>
       <c r="L26">
-        <v>1.538748580886288</v>
+        <v>1.005375650498644</v>
       </c>
       <c r="M26">
-        <v>1.261475147843111</v>
+        <v>1.006078822734568</v>
       </c>
       <c r="N26">
-        <v>0.8301376564807266</v>
+        <v>1.006546353493146</v>
       </c>
       <c r="O26">
-        <v>0.570584477541952</v>
+        <v>1.006754231819943</v>
       </c>
       <c r="P26">
-        <v>0.4916280566489768</v>
+        <v>1.006819282907784</v>
       </c>
       <c r="Q26">
-        <v>0.4961747051885059</v>
+        <v>1.006833833215544</v>
       </c>
       <c r="R26">
-        <v>0.5249654000246162</v>
+        <v>1.006833833215544</v>
       </c>
       <c r="S26">
-        <v>0.558634212749955</v>
+        <v>1.006819282907784</v>
       </c>
       <c r="T26">
-        <v>0.5929680803474879</v>
+        <v>1.006754231819943</v>
       </c>
       <c r="U26">
-        <v>0.6272364022801442</v>
+        <v>1.006546353493146</v>
       </c>
       <c r="V26">
-        <v>0.6612512525178392</v>
+        <v>1.006078822734568</v>
       </c>
       <c r="W26">
-        <v>0.6950308233533146</v>
+        <v>1.005375650498644</v>
       </c>
       <c r="X26">
-        <v>0.7288326201423684</v>
+        <v>1.004694689100497</v>
       </c>
       <c r="Y26">
-        <v>0.7627929649716988</v>
+        <v>1.004172275316471</v>
       </c>
       <c r="Z26">
-        <v>0.7966942002910947</v>
+        <v>1.003590752015232</v>
       </c>
       <c r="AA26">
-        <v>0.8305342020177553</v>
+        <v>1.002947995121203</v>
       </c>
       <c r="AB26">
-        <v>0.8644602840914694</v>
+        <v>1.002391318574226</v>
       </c>
       <c r="AC26">
-        <v>0.8983316973637373</v>
+        <v>1.001779973225804</v>
       </c>
       <c r="AD26">
-        <v>0.9322228396621199</v>
+        <v>1.001188356903498</v>
       </c>
       <c r="AE26">
-        <v>0.9661129822816398</v>
+        <v>1.00059574090233</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -2745,88 +2745,88 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1.047643196163336</v>
+        <v>1.000592004745137</v>
       </c>
       <c r="E27">
-        <v>1.046778922945</v>
+        <v>1.001195307528296</v>
       </c>
       <c r="F27">
-        <v>1.131890893557562</v>
+        <v>1.001772044993729</v>
       </c>
       <c r="G27">
-        <v>1.129701134234453</v>
+        <v>1.002394476831385</v>
       </c>
       <c r="H27">
-        <v>1.139885830110542</v>
+        <v>1.002958544023409</v>
       </c>
       <c r="I27">
-        <v>1.304720054510383</v>
+        <v>1.003562731571946</v>
       </c>
       <c r="J27">
-        <v>1.158573355356667</v>
+        <v>1.004198138602317</v>
       </c>
       <c r="K27">
-        <v>1.212054124364371</v>
+        <v>1.004715058602008</v>
       </c>
       <c r="L27">
-        <v>1.520008516348981</v>
+        <v>1.005314904723176</v>
       </c>
       <c r="M27">
-        <v>1.459617199804649</v>
+        <v>1.006046497158665</v>
       </c>
       <c r="N27">
-        <v>1.048603750269803</v>
+        <v>1.00664663617837</v>
       </c>
       <c r="O27">
-        <v>0.6908941358551768</v>
+        <v>1.006971187288964</v>
       </c>
       <c r="P27">
-        <v>0.5341241787396259</v>
+        <v>1.007093035922162</v>
       </c>
       <c r="Q27">
-        <v>0.5068422210624228</v>
+        <v>1.007125239503413</v>
       </c>
       <c r="R27">
-        <v>0.527117505551972</v>
+        <v>1.007125239503413</v>
       </c>
       <c r="S27">
-        <v>0.5591567527376482</v>
+        <v>1.007093035922162</v>
       </c>
       <c r="T27">
-        <v>0.5932100409336757</v>
+        <v>1.006971187288964</v>
       </c>
       <c r="U27">
-        <v>0.6273385689889305</v>
+        <v>1.00664663617837</v>
       </c>
       <c r="V27">
-        <v>0.6612190318531299</v>
+        <v>1.006046497158665</v>
       </c>
       <c r="W27">
-        <v>0.6949700817694813</v>
+        <v>1.005314904723176</v>
       </c>
       <c r="X27">
-        <v>0.7288529897575798</v>
+        <v>1.004715058602008</v>
       </c>
       <c r="Y27">
-        <v>0.7628188282594219</v>
+        <v>1.004198138602317</v>
       </c>
       <c r="Z27">
-        <v>0.796666179847823</v>
+        <v>1.003562731571946</v>
       </c>
       <c r="AA27">
-        <v>0.8305447509199605</v>
+        <v>1.002958544023409</v>
       </c>
       <c r="AB27">
-        <v>0.8644634423486275</v>
+        <v>1.002394476831385</v>
       </c>
       <c r="AC27">
-        <v>0.8983237691316623</v>
+        <v>1.001772044993729</v>
       </c>
       <c r="AD27">
-        <v>0.9322297902869193</v>
+        <v>1.001195307528296</v>
       </c>
       <c r="AE27">
-        <v>0.9661092461244469</v>
+        <v>1.000592004745137</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -2840,88 +2840,88 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1.038140634537941</v>
+        <v>1.00059109309745</v>
       </c>
       <c r="E28">
-        <v>1.069120664450494</v>
+        <v>1.001195616823663</v>
       </c>
       <c r="F28">
-        <v>1.093465421878068</v>
+        <v>1.001775540354709</v>
       </c>
       <c r="G28">
-        <v>1.178774368308235</v>
+        <v>1.002383043927135</v>
       </c>
       <c r="H28">
-        <v>1.106165189271374</v>
+        <v>1.002979123014742</v>
       </c>
       <c r="I28">
-        <v>1.278444254716492</v>
+        <v>1.003542515999118</v>
       </c>
       <c r="J28">
-        <v>1.258217189656107</v>
+        <v>1.004194380130494</v>
       </c>
       <c r="K28">
-        <v>1.142354356020036</v>
+        <v>1.004756159633888</v>
       </c>
       <c r="L28">
-        <v>1.409182024679438</v>
+        <v>1.005287095526289</v>
       </c>
       <c r="M28">
-        <v>1.570103718518558</v>
+        <v>1.005981308228816</v>
       </c>
       <c r="N28">
-        <v>1.280395802838935</v>
+        <v>1.006678021886317</v>
       </c>
       <c r="O28">
-        <v>0.8614387084931705</v>
+        <v>1.007137467138636</v>
       </c>
       <c r="P28">
-        <v>0.6089923006898619</v>
+        <v>1.007344377673554</v>
       </c>
       <c r="Q28">
-        <v>0.5293990474780277</v>
+        <v>1.007408594895969</v>
       </c>
       <c r="R28">
-        <v>0.5322106017533597</v>
+        <v>1.007408594895969</v>
       </c>
       <c r="S28">
-        <v>0.5601828029779293</v>
+        <v>1.007344377673554</v>
       </c>
       <c r="T28">
-        <v>0.5934708114846703</v>
+        <v>1.007137467138636</v>
       </c>
       <c r="U28">
-        <v>0.6273787193999529</v>
+        <v>1.006678021886317</v>
       </c>
       <c r="V28">
-        <v>0.6611544579514587</v>
+        <v>1.005981308228816</v>
       </c>
       <c r="W28">
-        <v>0.6949423047035846</v>
+        <v>1.005287095526289</v>
       </c>
       <c r="X28">
-        <v>0.7288940920012273</v>
+        <v>1.004756159633888</v>
       </c>
       <c r="Y28">
-        <v>0.7628150698187847</v>
+        <v>1.004194380130494</v>
       </c>
       <c r="Z28">
-        <v>0.7966459642754854</v>
+        <v>1.003542515999118</v>
       </c>
       <c r="AA28">
-        <v>0.8305653299112981</v>
+        <v>1.002979123014742</v>
       </c>
       <c r="AB28">
-        <v>0.8644520094443776</v>
+        <v>1.002383043927135</v>
       </c>
       <c r="AC28">
-        <v>0.8983272644926429</v>
+        <v>1.001775540354709</v>
       </c>
       <c r="AD28">
-        <v>0.9322300995822863</v>
+        <v>1.001195616823663</v>
       </c>
       <c r="AE28">
-        <v>0.9661083344767604</v>
+        <v>1.00059109309745</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -2935,88 +2935,88 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1.026847921756199</v>
+        <v>1.000593539106953</v>
       </c>
       <c r="E29">
-        <v>1.089803587834744</v>
+        <v>1.001189776070238</v>
       </c>
       <c r="F29">
-        <v>1.070280997449223</v>
+        <v>1.001785930726035</v>
       </c>
       <c r="G29">
-        <v>1.18836807101526</v>
+        <v>1.002368754901681</v>
       </c>
       <c r="H29">
-        <v>1.133666609552699</v>
+        <v>1.002991530480267</v>
       </c>
       <c r="I29">
-        <v>1.204041922296226</v>
+        <v>1.00354441821304</v>
       </c>
       <c r="J29">
-        <v>1.333952081811625</v>
+        <v>1.004168100501675</v>
       </c>
       <c r="K29">
-        <v>1.168327213249569</v>
+        <v>1.004789549763021</v>
       </c>
       <c r="L29">
-        <v>1.271879039304824</v>
+        <v>1.005300105531933</v>
       </c>
       <c r="M29">
-        <v>1.567932834852782</v>
+        <v>1.005916744537711</v>
       </c>
       <c r="N29">
-        <v>1.479875560741531</v>
+        <v>1.006650090492968</v>
       </c>
       <c r="O29">
-        <v>1.073610952766778</v>
+        <v>1.007240613308957</v>
       </c>
       <c r="P29">
-        <v>0.7270737112879665</v>
+        <v>1.007560046096819</v>
       </c>
       <c r="Q29">
-        <v>0.5725570757654241</v>
+        <v>1.007675895982922</v>
       </c>
       <c r="R29">
-        <v>0.5435938596920568</v>
+        <v>1.007675895982922</v>
       </c>
       <c r="S29">
-        <v>0.5625378050387535</v>
+        <v>1.007560046096819</v>
       </c>
       <c r="T29">
-        <v>0.5938865568878003</v>
+        <v>1.007240613308957</v>
       </c>
       <c r="U29">
-        <v>0.6273858274700311</v>
+        <v>1.006650090492968</v>
       </c>
       <c r="V29">
-        <v>0.6610929110999424</v>
+        <v>1.005916744537711</v>
       </c>
       <c r="W29">
-        <v>0.6949555127740672</v>
+        <v>1.005300105531933</v>
       </c>
       <c r="X29">
-        <v>0.7289274918748533</v>
+        <v>1.004789549763021</v>
       </c>
       <c r="Y29">
-        <v>0.7627887905379331</v>
+        <v>1.004168100501675</v>
       </c>
       <c r="Z29">
-        <v>0.7966478664979257</v>
+        <v>1.00354441821304</v>
       </c>
       <c r="AA29">
-        <v>0.8305777373769522</v>
+        <v>1.002991530480267</v>
       </c>
       <c r="AB29">
-        <v>0.8644377204189242</v>
+        <v>1.002368754901681</v>
       </c>
       <c r="AC29">
-        <v>0.8983376548639679</v>
+        <v>1.001785930726035</v>
       </c>
       <c r="AD29">
-        <v>0.9322242588288611</v>
+        <v>1.001189776070238</v>
       </c>
       <c r="AE29">
-        <v>0.9661107804862652</v>
+        <v>1.000593539106953</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3030,88 +3030,88 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1.024582145055044</v>
+        <v>1.000596659580539</v>
       </c>
       <c r="E30">
-        <v>1.089866947102977</v>
+        <v>1.001183914739941</v>
       </c>
       <c r="F30">
-        <v>1.081498989008266</v>
+        <v>1.001792988477323</v>
       </c>
       <c r="G30">
-        <v>1.154764639965136</v>
+        <v>1.002364453726961</v>
       </c>
       <c r="H30">
-        <v>1.192437223385547</v>
+        <v>1.002986465984339</v>
       </c>
       <c r="I30">
-        <v>1.144523301568927</v>
+        <v>1.003564019065927</v>
       </c>
       <c r="J30">
-        <v>1.33580321694778</v>
+        <v>1.004141262616034</v>
       </c>
       <c r="K30">
-        <v>1.26159424413343</v>
+        <v>1.004795216519045</v>
       </c>
       <c r="L30">
-        <v>1.182701546303386</v>
+        <v>1.005339636346794</v>
       </c>
       <c r="M30">
-        <v>1.469734183772204</v>
+        <v>1.005881357583975</v>
       </c>
       <c r="N30">
-        <v>1.599803485178251</v>
+        <v>1.006586453314802</v>
       </c>
       <c r="O30">
-        <v>1.300715038664371</v>
+        <v>1.007275986972247</v>
       </c>
       <c r="P30">
-        <v>0.8931602733751383</v>
+        <v>1.007724818794645</v>
       </c>
       <c r="Q30">
-        <v>0.6471034589151143</v>
+        <v>1.007914234598348</v>
       </c>
       <c r="R30">
-        <v>0.5669539079857699</v>
+        <v>1.007914234598348</v>
       </c>
       <c r="S30">
-        <v>0.5679940087251653</v>
+        <v>1.007724818794645</v>
       </c>
       <c r="T30">
-        <v>0.5948399319742266</v>
+        <v>1.007275986972247</v>
       </c>
       <c r="U30">
-        <v>0.6274448888020294</v>
+        <v>1.006586453314802</v>
       </c>
       <c r="V30">
-        <v>0.6610702437594794</v>
+        <v>1.005881357583975</v>
       </c>
       <c r="W30">
-        <v>0.6949960652012152</v>
+        <v>1.005339636346794</v>
       </c>
       <c r="X30">
-        <v>0.7289332216390526</v>
+        <v>1.004795216519045</v>
       </c>
       <c r="Y30">
-        <v>0.7627619555813098</v>
+        <v>1.004141262616034</v>
       </c>
       <c r="Z30">
-        <v>0.7966674674501245</v>
+        <v>1.003564019065927</v>
       </c>
       <c r="AA30">
-        <v>0.8305726728833427</v>
+        <v>1.002986465984339</v>
       </c>
       <c r="AB30">
-        <v>0.8644334192442388</v>
+        <v>1.002364453726961</v>
       </c>
       <c r="AC30">
-        <v>0.8983447126152552</v>
+        <v>1.001792988477323</v>
       </c>
       <c r="AD30">
-        <v>0.9322183974985636</v>
+        <v>1.001183914739941</v>
       </c>
       <c r="AE30">
-        <v>0.9661139009598526</v>
+        <v>1.000596659580539</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3125,88 +3125,88 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1.032492032602111</v>
+        <v>1.000597428948841</v>
       </c>
       <c r="E31">
-        <v>1.071517116335549</v>
+        <v>1.001183508054139</v>
       </c>
       <c r="F31">
-        <v>1.113125382830205</v>
+        <v>1.001790644106675</v>
       </c>
       <c r="G31">
-        <v>1.112262942030897</v>
+        <v>1.002372789304177</v>
       </c>
       <c r="H31">
-        <v>1.229811210909137</v>
+        <v>1.002970286694464</v>
       </c>
       <c r="I31">
-        <v>1.144803140140496</v>
+        <v>1.003583542535945</v>
       </c>
       <c r="J31">
-        <v>1.271282130035634</v>
+        <v>1.004133602318619</v>
       </c>
       <c r="K31">
-        <v>1.353690343763367</v>
+        <v>1.004773499756253</v>
       </c>
       <c r="L31">
-        <v>1.185005387126663</v>
+        <v>1.005378492514013</v>
       </c>
       <c r="M31">
-        <v>1.332294698675933</v>
+        <v>1.005886814253651</v>
       </c>
       <c r="N31">
-        <v>1.61244197263499</v>
+        <v>1.006518925618291</v>
       </c>
       <c r="O31">
-        <v>1.500702544868126</v>
+        <v>1.007251185176776</v>
       </c>
       <c r="P31">
-        <v>1.099621323169612</v>
+        <v>1.007824737487797</v>
       </c>
       <c r="Q31">
-        <v>0.7631266579474745</v>
+        <v>1.008105219262849</v>
       </c>
       <c r="R31">
-        <v>0.610611369196668</v>
+        <v>1.008105219262849</v>
       </c>
       <c r="S31">
-        <v>0.5799016680389937</v>
+        <v>1.007824737487797</v>
       </c>
       <c r="T31">
-        <v>0.5972330654553381</v>
+        <v>1.007251185176776</v>
       </c>
       <c r="U31">
-        <v>0.6277590496664395</v>
+        <v>1.006518925618291</v>
       </c>
       <c r="V31">
-        <v>0.661122693040088</v>
+        <v>1.005886814253651</v>
       </c>
       <c r="W31">
-        <v>0.6950394513773885</v>
+        <v>1.005378492514013</v>
       </c>
       <c r="X31">
-        <v>0.7289118457793567</v>
+        <v>1.004773499756253</v>
       </c>
       <c r="Y31">
-        <v>0.7627543151063256</v>
+        <v>1.004133602318619</v>
       </c>
       <c r="Z31">
-        <v>0.7966869917934241</v>
+        <v>1.003583542535945</v>
       </c>
       <c r="AA31">
-        <v>0.8305564936216524</v>
+        <v>1.002970286694464</v>
       </c>
       <c r="AB31">
-        <v>0.8644417548220835</v>
+        <v>1.002372789304177</v>
       </c>
       <c r="AC31">
-        <v>0.8983423682446154</v>
+        <v>1.001790644106675</v>
       </c>
       <c r="AD31">
-        <v>0.9322179908127614</v>
+        <v>1.001183508054139</v>
       </c>
       <c r="AE31">
-        <v>0.9661146703281547</v>
+        <v>1.000597428948841</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3220,88 +3220,88 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1.042035182932009</v>
+        <v>1.000595360856257</v>
       </c>
       <c r="E32">
-        <v>1.053813081258426</v>
+        <v>1.001188365605147</v>
       </c>
       <c r="F32">
-        <v>1.134134099828653</v>
+        <v>1.001782052022269</v>
       </c>
       <c r="G32">
-        <v>1.099363921516046</v>
+        <v>1.002384962929589</v>
       </c>
       <c r="H32">
-        <v>1.216546113521007</v>
+        <v>1.002958047017387</v>
       </c>
       <c r="I32">
-        <v>1.19795474387801</v>
+        <v>1.00358726699126</v>
       </c>
       <c r="J32">
-        <v>1.195743349081637</v>
+        <v>1.004148401434944</v>
       </c>
       <c r="K32">
-        <v>1.383013150802195</v>
+        <v>1.004743056823493</v>
       </c>
       <c r="L32">
-        <v>1.266302794996434</v>
+        <v>1.005393180926701</v>
       </c>
       <c r="M32">
-        <v>1.228069704182109</v>
+        <v>1.005923218329577</v>
       </c>
       <c r="N32">
-        <v>1.527108784660249</v>
+        <v>1.006476434970241</v>
       </c>
       <c r="O32">
-        <v>1.628354602588968</v>
+        <v>1.007186706569438</v>
       </c>
       <c r="P32">
-        <v>1.32222901208318</v>
+        <v>1.007851388546957</v>
       </c>
       <c r="Q32">
-        <v>0.9251447010976674</v>
+        <v>1.008226083483587</v>
       </c>
       <c r="R32">
-        <v>0.684720227305849</v>
+        <v>1.008226083483587</v>
       </c>
       <c r="S32">
-        <v>0.6038196019963268</v>
+        <v>1.007851388546957</v>
       </c>
       <c r="T32">
-        <v>0.6029248456351386</v>
+        <v>1.007186706569438</v>
       </c>
       <c r="U32">
-        <v>0.6287826253214863</v>
+        <v>1.006476434970241</v>
       </c>
       <c r="V32">
-        <v>0.6613134210616095</v>
+        <v>1.005923218329577</v>
       </c>
       <c r="W32">
-        <v>0.695071746569729</v>
+        <v>1.005393180926701</v>
       </c>
       <c r="X32">
-        <v>0.7288829886509108</v>
+        <v>1.004743056823493</v>
       </c>
       <c r="Y32">
-        <v>0.762769226471374</v>
+        <v>1.004148401434944</v>
       </c>
       <c r="Z32">
-        <v>0.796690722422006</v>
+        <v>1.00358726699126</v>
       </c>
       <c r="AA32">
-        <v>0.8305442542030128</v>
+        <v>1.002958047017387</v>
       </c>
       <c r="AB32">
-        <v>0.8644539284554537</v>
+        <v>1.002384962929589</v>
       </c>
       <c r="AC32">
-        <v>0.898333776160379</v>
+        <v>1.001782052022269</v>
       </c>
       <c r="AD32">
-        <v>0.9322228483637711</v>
+        <v>1.001188365605147</v>
       </c>
       <c r="AE32">
-        <v>0.9661126022355696</v>
+        <v>1.000595360856257</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3315,88 +3315,88 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1.04401401211051</v>
+        <v>1.000592703736832</v>
       </c>
       <c r="E33">
-        <v>1.053244826242255</v>
+        <v>1.001193393573213</v>
       </c>
       <c r="F33">
-        <v>1.126370017606392</v>
+        <v>1.001775766060412</v>
       </c>
       <c r="G33">
-        <v>1.124452993580586</v>
+        <v>1.00238967985012</v>
       </c>
       <c r="H33">
-        <v>1.169337625720887</v>
+        <v>1.002959841311828</v>
       </c>
       <c r="I33">
-        <v>1.25520134132718</v>
+        <v>1.003573970064028</v>
       </c>
       <c r="J33">
-        <v>1.167574867256873</v>
+        <v>1.004171580787486</v>
       </c>
       <c r="K33">
-        <v>1.336340918459443</v>
+        <v>1.004726481069398</v>
       </c>
       <c r="L33">
-        <v>1.367219519114065</v>
+        <v>1.005377847664307</v>
       </c>
       <c r="M33">
-        <v>1.208162752511401</v>
+        <v>1.00596541721495</v>
       </c>
       <c r="N33">
-        <v>1.392327281048153</v>
+        <v>1.006473208061825</v>
       </c>
       <c r="O33">
-        <v>1.654163808201184</v>
+        <v>1.007110830556682</v>
       </c>
       <c r="P33">
-        <v>1.522097020876817</v>
+        <v>1.007805542845894</v>
       </c>
       <c r="Q33">
-        <v>1.126327703546284</v>
+        <v>1.008253273970168</v>
       </c>
       <c r="R33">
-        <v>0.798710047535604</v>
+        <v>1.008253273970168</v>
       </c>
       <c r="S33">
-        <v>0.6477390031907435</v>
+        <v>1.007805542845894</v>
       </c>
       <c r="T33">
-        <v>0.6153047598268232</v>
+        <v>1.007110830556682</v>
       </c>
       <c r="U33">
-        <v>0.631474454989977</v>
+        <v>1.006473208061825</v>
       </c>
       <c r="V33">
-        <v>0.6618110315251302</v>
+        <v>1.00596541721495</v>
       </c>
       <c r="W33">
-        <v>0.695117270905335</v>
+        <v>1.005377847664307</v>
       </c>
       <c r="X33">
-        <v>0.7288728804572852</v>
+        <v>1.004726481069398</v>
       </c>
       <c r="Y33">
-        <v>0.7627929523689645</v>
+        <v>1.004171580787486</v>
       </c>
       <c r="Z33">
-        <v>0.7966774620081816</v>
+        <v>1.003573970064028</v>
       </c>
       <c r="AA33">
-        <v>0.8305460504022316</v>
+        <v>1.002959841311828</v>
       </c>
       <c r="AB33">
-        <v>0.864458645451945</v>
+        <v>1.00238967985012</v>
       </c>
       <c r="AC33">
-        <v>0.8983274902007594</v>
+        <v>1.001775766060412</v>
       </c>
       <c r="AD33">
-        <v>0.9322278763318824</v>
+        <v>1.001193393573213</v>
       </c>
       <c r="AE33">
-        <v>0.9661099451161423</v>
+        <v>1.000592703736832</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3410,88 +3410,88 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1.037297041794319</v>
+        <v>1.000592043142293</v>
       </c>
       <c r="E34">
-        <v>1.068650165534182</v>
+        <v>1.001193842203983</v>
       </c>
       <c r="F34">
-        <v>1.099845381536645</v>
+        <v>1.001777365424183</v>
       </c>
       <c r="G34">
-        <v>1.161242479686653</v>
+        <v>1.002383458688652</v>
       </c>
       <c r="H34">
-        <v>1.132373908787265</v>
+        <v>1.002972627428893</v>
       </c>
       <c r="I34">
-        <v>1.2690753913572</v>
+        <v>1.003556543629611</v>
       </c>
       <c r="J34">
-        <v>1.203504516750328</v>
+        <v>1.004184082529641</v>
       </c>
       <c r="K34">
-        <v>1.255196823479703</v>
+        <v>1.004734021893552</v>
       </c>
       <c r="L34">
-        <v>1.420652401417374</v>
+        <v>1.005346565140847</v>
       </c>
       <c r="M34">
-        <v>1.274061124625547</v>
+        <v>1.005987671424382</v>
       </c>
       <c r="N34">
-        <v>1.276963777090126</v>
+        <v>1.006502439065404</v>
       </c>
       <c r="O34">
-        <v>1.58149718519405</v>
+        <v>1.007049226992514</v>
       </c>
       <c r="P34">
-        <v>1.656039397168912</v>
+        <v>1.007697951853597</v>
       </c>
       <c r="Q34">
-        <v>1.344548621324864</v>
+        <v>1.00816853167568</v>
       </c>
       <c r="R34">
-        <v>0.9568615206818138</v>
+        <v>1.00816853167568</v>
       </c>
       <c r="S34">
-        <v>0.7212926046303952</v>
+        <v>1.007697951853597</v>
       </c>
       <c r="T34">
-        <v>0.6398356586502763</v>
+        <v>1.007049226992514</v>
       </c>
       <c r="U34">
-        <v>0.6377080050014674</v>
+        <v>1.006502439065404</v>
       </c>
       <c r="V34">
-        <v>0.6630510576999139</v>
+        <v>1.005987671424382</v>
       </c>
       <c r="W34">
-        <v>0.6952751377838772</v>
+        <v>1.005346565140847</v>
       </c>
       <c r="X34">
-        <v>0.7289038878535917</v>
+        <v>1.004734021893552</v>
       </c>
       <c r="Y34">
-        <v>0.7628077876984395</v>
+        <v>1.004184082529641</v>
       </c>
       <c r="Z34">
-        <v>0.7966602212830652</v>
+        <v>1.003556543629611</v>
       </c>
       <c r="AA34">
-        <v>0.8305588482653663</v>
+        <v>1.002972627428893</v>
       </c>
       <c r="AB34">
-        <v>0.8644524248732114</v>
+        <v>1.002383458688652</v>
       </c>
       <c r="AC34">
-        <v>0.8983290895867172</v>
+        <v>1.001777365424183</v>
       </c>
       <c r="AD34">
-        <v>0.9322283249632779</v>
+        <v>1.001193842203983</v>
       </c>
       <c r="AE34">
-        <v>0.9661092845216147</v>
+        <v>1.000592043142293</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3505,88 +3505,88 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1.029094091964515</v>
+        <v>1.000593821527604</v>
       </c>
       <c r="E35">
-        <v>1.084016027891759</v>
+        <v>1.001189721874381</v>
       </c>
       <c r="F35">
-        <v>1.080871216003785</v>
+        <v>1.001784607299021</v>
       </c>
       <c r="G35">
-        <v>1.175465548530372</v>
+        <v>1.002373006396126</v>
       </c>
       <c r="H35">
-        <v>1.136802705220974</v>
+        <v>1.002984100411076</v>
       </c>
       <c r="I35">
-        <v>1.232381352093018</v>
+        <v>1.003550022870022</v>
       </c>
       <c r="J35">
-        <v>1.268749961577845</v>
+        <v>1.004177184387767</v>
       </c>
       <c r="K35">
-        <v>1.202493546302037</v>
+        <v>1.004757213688552</v>
       </c>
       <c r="L35">
-        <v>1.396073570038308</v>
+        <v>1.005322423376446</v>
       </c>
       <c r="M35">
-        <v>1.377332979053794</v>
+        <v>1.005978340973185</v>
       </c>
       <c r="N35">
-        <v>1.237007962041936</v>
+        <v>1.006539675140505</v>
       </c>
       <c r="O35">
-        <v>1.45133276315465</v>
+        <v>1.00701310766184</v>
       </c>
       <c r="P35">
-        <v>1.693473526506279</v>
+        <v>1.007545824601549</v>
       </c>
       <c r="Q35">
-        <v>1.543720457903693</v>
+        <v>1.007966144425671</v>
       </c>
       <c r="R35">
-        <v>1.153042539975931</v>
+        <v>1.007966144425671</v>
       </c>
       <c r="S35">
-        <v>0.833374198587872</v>
+        <v>1.007545824601549</v>
       </c>
       <c r="T35">
-        <v>0.684198880556557</v>
+        <v>1.00701310766184</v>
       </c>
       <c r="U35">
-        <v>0.6508092315997717</v>
+        <v>1.006539675140505</v>
       </c>
       <c r="V35">
-        <v>0.6660113407210768</v>
+        <v>1.005978340973185</v>
       </c>
       <c r="W35">
-        <v>0.6957841721588569</v>
+        <v>1.005322423376446</v>
       </c>
       <c r="X35">
-        <v>0.7290036826936815</v>
+        <v>1.004757213688552</v>
       </c>
       <c r="Y35">
-        <v>0.7628097564628589</v>
+        <v>1.004177184387767</v>
       </c>
       <c r="Z35">
-        <v>0.7966545289073677</v>
+        <v>1.003550022870022</v>
       </c>
       <c r="AA35">
-        <v>0.8305703835348869</v>
+        <v>1.002984100411076</v>
       </c>
       <c r="AB35">
-        <v>0.864441976320893</v>
+        <v>1.002373006396126</v>
       </c>
       <c r="AC35">
-        <v>0.8983363316384387</v>
+        <v>1.001784607299021</v>
       </c>
       <c r="AD35">
-        <v>0.9322242046401173</v>
+        <v>1.001189721874381</v>
       </c>
       <c r="AE35">
-        <v>0.9661110629070992</v>
+        <v>1.000593821527604</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3600,88 +3600,88 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1.027348103125393</v>
+        <v>1.000596119617708</v>
       </c>
       <c r="E36">
-        <v>1.084865203295532</v>
+        <v>1.001185347814244</v>
       </c>
       <c r="F36">
-        <v>1.086331836574564</v>
+        <v>1.001790227591975</v>
       </c>
       <c r="G36">
-        <v>1.156374323415094</v>
+        <v>1.002368227833061</v>
       </c>
       <c r="H36">
-        <v>1.174791874200043</v>
+        <v>1.002984280504258</v>
       </c>
       <c r="I36">
-        <v>1.180884803482032</v>
+        <v>1.003558811875132</v>
       </c>
       <c r="J36">
-        <v>1.308339150215204</v>
+        <v>1.004158503191653</v>
       </c>
       <c r="K36">
-        <v>1.214749378877392</v>
+        <v>1.004776700580329</v>
       </c>
       <c r="L36">
-        <v>1.318414584979047</v>
+        <v>1.005320958589257</v>
       </c>
       <c r="M36">
-        <v>1.450208726975205</v>
+        <v>1.005945364664633</v>
       </c>
       <c r="N36">
-        <v>1.285714601524888</v>
+        <v>1.00655493580411</v>
       </c>
       <c r="O36">
-        <v>1.328122331674979</v>
+        <v>1.006991809435759</v>
       </c>
       <c r="P36">
-        <v>1.632934197855092</v>
+        <v>1.007365598070605</v>
       </c>
       <c r="Q36">
-        <v>1.682661082151228</v>
+        <v>1.007658677219632</v>
       </c>
       <c r="R36">
-        <v>1.366975953404974</v>
+        <v>1.007658677219632</v>
       </c>
       <c r="S36">
-        <v>0.9880790483845349</v>
+        <v>1.007365598070605</v>
       </c>
       <c r="T36">
-        <v>0.7575085197314702</v>
+        <v>1.006991809435759</v>
       </c>
       <c r="U36">
-        <v>0.6760583977175987</v>
+        <v>1.00655493580411</v>
       </c>
       <c r="V36">
-        <v>0.6726143043213585</v>
+        <v>1.005945364664633</v>
       </c>
       <c r="W36">
-        <v>0.697154876308098</v>
+        <v>1.005320958589257</v>
       </c>
       <c r="X36">
-        <v>0.7292501183423595</v>
+        <v>1.004776700580329</v>
       </c>
       <c r="Y36">
-        <v>0.7628213998961112</v>
+        <v>1.004158503191653</v>
       </c>
       <c r="Z36">
-        <v>0.7966666070774228</v>
+        <v>1.003558811875132</v>
       </c>
       <c r="AA36">
-        <v>0.8305708533440292</v>
+        <v>1.002984280504258</v>
       </c>
       <c r="AB36">
-        <v>0.8644372184014598</v>
+        <v>1.002368227833061</v>
       </c>
       <c r="AC36">
-        <v>0.8983419531111932</v>
+        <v>1.001790227591975</v>
       </c>
       <c r="AD36">
-        <v>0.9322198306332825</v>
+        <v>1.001185347814244</v>
       </c>
       <c r="AE36">
-        <v>0.9661133609990634</v>
+        <v>1.000596119617708</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3695,88 +3695,88 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1.033144363547457</v>
+        <v>1.000596694852519</v>
       </c>
       <c r="E37">
-        <v>1.071701761976527</v>
+        <v>1.001184886649406</v>
       </c>
       <c r="F37">
-        <v>1.108936420535718</v>
+        <v>1.001789128000768</v>
       </c>
       <c r="G37">
-        <v>1.124376864285921</v>
+        <v>1.002372962377525</v>
       </c>
       <c r="H37">
-        <v>1.209699887803372</v>
+        <v>1.00297408027236</v>
       </c>
       <c r="I37">
-        <v>1.159728609233841</v>
+        <v>1.003573890866654</v>
       </c>
       <c r="J37">
-        <v>1.292667309334815</v>
+        <v>1.004144448513578</v>
       </c>
       <c r="K37">
-        <v>1.276318955812612</v>
+        <v>1.004777702627169</v>
       </c>
       <c r="L37">
-        <v>1.247787833893411</v>
+        <v>1.005339530818679</v>
       </c>
       <c r="M37">
-        <v>1.449012408034997</v>
+        <v>1.005908679622107</v>
       </c>
       <c r="N37">
-        <v>1.386146704907942</v>
+        <v>1.006527022090758</v>
       </c>
       <c r="O37">
-        <v>1.270512934202813</v>
+        <v>1.006954739960478</v>
       </c>
       <c r="P37">
-        <v>1.508623623732911</v>
+        <v>1.007165194168206</v>
       </c>
       <c r="Q37">
-        <v>1.730248703138166</v>
+        <v>1.007277940226335</v>
       </c>
       <c r="R37">
-        <v>1.565106422765471</v>
+        <v>1.007277940226335</v>
       </c>
       <c r="S37">
-        <v>1.179865492273041</v>
+        <v>1.007165194168206</v>
       </c>
       <c r="T37">
-        <v>0.8680982605661817</v>
+        <v>1.006954739960478</v>
       </c>
       <c r="U37">
-        <v>0.7208090709898335</v>
+        <v>1.006527022090758</v>
       </c>
       <c r="V37">
-        <v>0.6862134342673851</v>
+        <v>1.005908679622107</v>
       </c>
       <c r="W37">
-        <v>0.7004142479692197</v>
+        <v>1.005339530818679</v>
       </c>
       <c r="X37">
-        <v>0.7298655638709103</v>
+        <v>1.004777702627169</v>
       </c>
       <c r="Y37">
-        <v>0.7629015247362536</v>
+        <v>1.004144448513578</v>
       </c>
       <c r="Z37">
-        <v>0.7966934450188017</v>
+        <v>1.003573890866654</v>
       </c>
       <c r="AA37">
-        <v>0.8305618528508779</v>
+        <v>1.00297408027236</v>
       </c>
       <c r="AB37">
-        <v>0.8644420528951022</v>
+        <v>1.002372962377525</v>
       </c>
       <c r="AC37">
-        <v>0.8983408602870369</v>
+        <v>1.001789128000768</v>
       </c>
       <c r="AD37">
-        <v>0.9322193698373705</v>
+        <v>1.001184886649406</v>
       </c>
       <c r="AE37">
-        <v>0.9661139362498163</v>
+        <v>1.000596694852519</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -3790,88 +3790,88 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1.040293882689925</v>
+        <v>1.000595144323422</v>
       </c>
       <c r="E38">
-        <v>1.058207635690052</v>
+        <v>1.001188437873187</v>
       </c>
       <c r="F38">
-        <v>1.126092450794625</v>
+        <v>1.00178292666591</v>
       </c>
       <c r="G38">
-        <v>1.10985005009856</v>
+        <v>1.002382017801507</v>
       </c>
       <c r="H38">
-        <v>1.210784325884956</v>
+        <v>1.002963553215327</v>
       </c>
       <c r="I38">
-        <v>1.184299909653277</v>
+        <v>1.003581656621334</v>
       </c>
       <c r="J38">
-        <v>1.239673705048633</v>
+        <v>1.004146067952169</v>
       </c>
       <c r="K38">
-        <v>1.334842840648584</v>
+        <v>1.004760848193488</v>
       </c>
       <c r="L38">
-        <v>1.234600006822972</v>
+        <v>1.005359933201081</v>
       </c>
       <c r="M38">
-        <v>1.381793519777629</v>
+        <v>1.005884292995886</v>
       </c>
       <c r="N38">
-        <v>1.473386791396478</v>
+        <v>1.006451452227673</v>
       </c>
       <c r="O38">
-        <v>1.301339651789454</v>
+        <v>1.006863354569699</v>
       </c>
       <c r="P38">
-        <v>1.380191647079519</v>
+        <v>1.006940363228407</v>
       </c>
       <c r="Q38">
-        <v>1.681144484180616</v>
+        <v>1.006869016718507</v>
       </c>
       <c r="R38">
-        <v>1.708212229596034</v>
+        <v>1.006869016718507</v>
       </c>
       <c r="S38">
-        <v>1.39002036085794</v>
+        <v>1.006940363228407</v>
       </c>
       <c r="T38">
-        <v>1.019807511933521</v>
+        <v>1.006863354569699</v>
       </c>
       <c r="U38">
-        <v>0.7937331324755432</v>
+        <v>1.006451452227673</v>
       </c>
       <c r="V38">
-        <v>0.7120116768194825</v>
+        <v>1.005884292995886</v>
       </c>
       <c r="W38">
-        <v>0.7074862451803053</v>
+        <v>1.005359933201081</v>
       </c>
       <c r="X38">
-        <v>0.7313771706403743</v>
+        <v>1.004760848193488</v>
       </c>
       <c r="Y38">
-        <v>0.7631706394306971</v>
+        <v>1.004146067952169</v>
       </c>
       <c r="Z38">
-        <v>0.7967394048475628</v>
+        <v>1.003581656621334</v>
       </c>
       <c r="AA38">
-        <v>0.8305558004107636</v>
+        <v>1.002963553215327</v>
       </c>
       <c r="AB38">
-        <v>0.8644515392256723</v>
+        <v>1.002382017801507</v>
       </c>
       <c r="AC38">
-        <v>0.8983346930024801</v>
+        <v>1.00178292666591</v>
       </c>
       <c r="AD38">
-        <v>0.9322229232569865</v>
+        <v>1.001188437873187</v>
       </c>
       <c r="AE38">
-        <v>0.9661123858350037</v>
+        <v>1.000595144323422</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3885,88 +3885,88 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1.041848369409944</v>
+        <v>1.000593131100911</v>
       </c>
       <c r="E39">
-        <v>1.057206274929689</v>
+        <v>1.001192287907708</v>
       </c>
       <c r="F39">
-        <v>1.122216677103373</v>
+        <v>1.00177787591677</v>
       </c>
       <c r="G39">
-        <v>1.124617405031815</v>
+        <v>1.002386684295045</v>
       </c>
       <c r="H39">
-        <v>1.18001409096202</v>
+        <v>1.002962168156341</v>
       </c>
       <c r="I39">
-        <v>1.229335762979472</v>
+        <v>1.00357599935722</v>
       </c>
       <c r="J39">
-        <v>1.1966289358136</v>
+        <v>1.004160279618382</v>
       </c>
       <c r="K39">
-        <v>1.344513733128164</v>
+        <v>1.004740069951376</v>
       </c>
       <c r="L39">
-        <v>1.2832712664476</v>
+        <v>1.005361654280286</v>
       </c>
       <c r="M39">
-        <v>1.300674571186309</v>
+        <v>1.005870606228911</v>
       </c>
       <c r="N39">
-        <v>1.494716775078546</v>
+        <v>1.006337068142148</v>
       </c>
       <c r="O39">
-        <v>1.394891153100367</v>
+        <v>1.00668824575809</v>
       </c>
       <c r="P39">
-        <v>1.307284880878885</v>
+        <v>1.006678443496456</v>
       </c>
       <c r="Q39">
-        <v>1.563568992301646</v>
+        <v>1.006477929838153</v>
       </c>
       <c r="R39">
-        <v>1.765003132888219</v>
+        <v>1.006477929838153</v>
       </c>
       <c r="S39">
-        <v>1.587169984396258</v>
+        <v>1.006678443496456</v>
       </c>
       <c r="T39">
-        <v>1.20755138066747</v>
+        <v>1.00668824575809</v>
       </c>
       <c r="U39">
-        <v>0.9027454249117325</v>
+        <v>1.006337068142148</v>
       </c>
       <c r="V39">
-        <v>0.7571089253758008</v>
+        <v>1.005870606228911</v>
       </c>
       <c r="W39">
-        <v>0.7216623316662025</v>
+        <v>1.005361654280286</v>
       </c>
       <c r="X39">
-        <v>0.7348644132424019</v>
+        <v>1.004740069951376</v>
       </c>
       <c r="Y39">
-        <v>0.7638835782817763</v>
+        <v>1.004160279618382</v>
       </c>
       <c r="Z39">
-        <v>0.7968472722129079</v>
+        <v>1.00357599935722</v>
       </c>
       <c r="AA39">
-        <v>0.8305695837835761</v>
+        <v>1.002962168156341</v>
       </c>
       <c r="AB39">
-        <v>0.8644578792967172</v>
+        <v>1.002386684295045</v>
       </c>
       <c r="AC39">
-        <v>0.8983297948373481</v>
+        <v>1.00177787591677</v>
       </c>
       <c r="AD39">
-        <v>0.9322267847574802</v>
+        <v>1.001192287907708</v>
       </c>
       <c r="AE39">
-        <v>0.9661103733169358</v>
+        <v>1.000593131100911</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -3980,88 +3980,88 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1.036780240157412</v>
+        <v>1.000592624304871</v>
       </c>
       <c r="E40">
-        <v>1.068618038332811</v>
+        <v>1.001192745742795</v>
       </c>
       <c r="F40">
-        <v>1.10268848485081</v>
+        <v>1.001778630259933</v>
       </c>
       <c r="G40">
-        <v>1.15263374946551</v>
+        <v>1.002383019659338</v>
       </c>
       <c r="H40">
-        <v>1.147725102560897</v>
+        <v>1.002970369932251</v>
       </c>
       <c r="I40">
-        <v>1.253864491509835</v>
+        <v>1.003562954358177</v>
       </c>
       <c r="J40">
-        <v>1.198732072698676</v>
+        <v>1.004173368802553</v>
       </c>
       <c r="K40">
-        <v>1.301902809608963</v>
+        <v>1.004729740208243</v>
       </c>
       <c r="L40">
-        <v>1.351603968927046</v>
+        <v>1.005335217264419</v>
       </c>
       <c r="M40">
-        <v>1.263715347383371</v>
+        <v>1.005846296953089</v>
       </c>
       <c r="N40">
-        <v>1.44257980229301</v>
+        <v>1.006193862982299</v>
       </c>
       <c r="O40">
-        <v>1.491497491850454</v>
+        <v>1.006422891977088</v>
       </c>
       <c r="P40">
-        <v>1.320350710589312</v>
+        <v>1.006368845915337</v>
       </c>
       <c r="Q40">
-        <v>1.43228100771363</v>
+        <v>1.006136971372375</v>
       </c>
       <c r="R40">
-        <v>1.726977213910771</v>
+        <v>1.006136971372375</v>
       </c>
       <c r="S40">
-        <v>1.733873244125368</v>
+        <v>1.006368845915337</v>
       </c>
       <c r="T40">
-        <v>1.413998411394682</v>
+        <v>1.006422891977088</v>
       </c>
       <c r="U40">
-        <v>1.051550081402873</v>
+        <v>1.006193862982299</v>
       </c>
       <c r="V40">
-        <v>0.8297536503887025</v>
+        <v>1.005846296953089</v>
       </c>
       <c r="W40">
-        <v>0.7480005869735492</v>
+        <v>1.005335217264419</v>
       </c>
       <c r="X40">
-        <v>0.7423059267102231</v>
+        <v>1.004729740208243</v>
       </c>
       <c r="Y40">
-        <v>0.765582649355795</v>
+        <v>1.004173368802553</v>
       </c>
       <c r="Z40">
-        <v>0.797144793988137</v>
+        <v>1.003562954358177</v>
       </c>
       <c r="AA40">
-        <v>0.8306248631420068</v>
+        <v>1.002970369932251</v>
       </c>
       <c r="AB40">
-        <v>0.8644601243746347</v>
+        <v>1.002383019659338</v>
       </c>
       <c r="AC40">
-        <v>0.8983311652670912</v>
+        <v>1.001778630259933</v>
       </c>
       <c r="AD40">
-        <v>0.9322272959178048</v>
+        <v>1.001192745742795</v>
       </c>
       <c r="AE40">
-        <v>0.96610987032977</v>
+        <v>1.000592624304871</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4075,88 +4075,88 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1.030476500409378</v>
+        <v>1.000593991792095</v>
       </c>
       <c r="E41">
-        <v>1.080587963821582</v>
+        <v>1.001189644347686</v>
       </c>
       <c r="F41">
-        <v>1.087128997122423</v>
+        <v>1.001784010823663</v>
       </c>
       <c r="G41">
-        <v>1.166936616019377</v>
+        <v>1.002375095242007</v>
       </c>
       <c r="H41">
-        <v>1.143198123123161</v>
+        <v>1.002979880246414</v>
       </c>
       <c r="I41">
-        <v>1.238075268100174</v>
+        <v>1.003554366863746</v>
       </c>
       <c r="J41">
-        <v>1.240410998514113</v>
+        <v>1.004172947227052</v>
       </c>
       <c r="K41">
-        <v>1.24592449169171</v>
+        <v>1.004731686877731</v>
       </c>
       <c r="L41">
-        <v>1.385539226191053</v>
+        <v>1.005285180906676</v>
       </c>
       <c r="M41">
-        <v>1.293444392693762</v>
+        <v>1.005781109262402</v>
       </c>
       <c r="N41">
-        <v>1.357956138169426</v>
+        <v>1.006021023563845</v>
       </c>
       <c r="O41">
-        <v>1.533087712895895</v>
+        <v>1.00608676943195</v>
       </c>
       <c r="P41">
-        <v>1.404185809896104</v>
+        <v>1.006014791213916</v>
       </c>
       <c r="Q41">
-        <v>1.346684500393819</v>
+        <v>1.005853981542338</v>
       </c>
       <c r="R41">
-        <v>1.617001250937687</v>
+        <v>1.005853981542338</v>
       </c>
       <c r="S41">
-        <v>1.798883788118159</v>
+        <v>1.006014791213916</v>
       </c>
       <c r="T41">
-        <v>1.609802067806613</v>
+        <v>1.00608676943195</v>
       </c>
       <c r="U41">
-        <v>1.235517712638424</v>
+        <v>1.006021023563845</v>
       </c>
       <c r="V41">
-        <v>0.9374092173013586</v>
+        <v>1.005781109262402</v>
       </c>
       <c r="W41">
-        <v>0.7933534430688527</v>
+        <v>1.005285180906676</v>
       </c>
       <c r="X41">
-        <v>0.7569902859052687</v>
+        <v>1.004731686877731</v>
       </c>
       <c r="Y41">
-        <v>0.7693530759265061</v>
+        <v>1.004172947227052</v>
       </c>
       <c r="Z41">
-        <v>0.7979217968937482</v>
+        <v>1.003554366863746</v>
       </c>
       <c r="AA41">
-        <v>0.8307689405201267</v>
+        <v>1.002979880246414</v>
       </c>
       <c r="AB41">
-        <v>0.8644713143675093</v>
+        <v>1.002375095242007</v>
       </c>
       <c r="AC41">
-        <v>0.8983388081363985</v>
+        <v>1.001784010823663</v>
       </c>
       <c r="AD41">
-        <v>0.9322244180184424</v>
+        <v>1.001189644347686</v>
       </c>
       <c r="AE41">
-        <v>0.9661112561571705</v>
+        <v>1.000593991792095</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4170,88 +4170,88 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1.02908150141205</v>
+        <v>1.000595774470192</v>
       </c>
       <c r="E42">
-        <v>1.081665281782513</v>
+        <v>1.001186221432674</v>
       </c>
       <c r="F42">
-        <v>1.089886155793063</v>
+        <v>1.001788570872984</v>
       </c>
       <c r="G42">
-        <v>1.155352954624951</v>
+        <v>1.002370595971192</v>
       </c>
       <c r="H42">
-        <v>1.168325053153732</v>
+        <v>1.002981815963809</v>
       </c>
       <c r="I42">
-        <v>1.199150691049744</v>
+        <v>1.003556802805809</v>
       </c>
       <c r="J42">
-        <v>1.282884365020466</v>
+        <v>1.004157565473395</v>
       </c>
       <c r="K42">
-        <v>1.223471484104894</v>
+        <v>1.004732322141786</v>
       </c>
       <c r="L42">
-        <v>1.361547091455901</v>
+        <v>1.005220753130628</v>
       </c>
       <c r="M42">
-        <v>1.362325082747392</v>
+        <v>1.005651918058144</v>
       </c>
       <c r="N42">
-        <v>1.300987431358543</v>
+        <v>1.005804642037056</v>
       </c>
       <c r="O42">
-        <v>1.498669564509771</v>
+        <v>1.005716215865278</v>
       </c>
       <c r="P42">
-        <v>1.505871057577272</v>
+        <v>1.005638528649109</v>
       </c>
       <c r="Q42">
-        <v>1.343042508085546</v>
+        <v>1.005611194130195</v>
       </c>
       <c r="R42">
-        <v>1.484916734623755</v>
+        <v>1.005611194130195</v>
       </c>
       <c r="S42">
-        <v>1.771153267737944</v>
+        <v>1.005638528649109</v>
       </c>
       <c r="T42">
-        <v>1.759305065504383</v>
+        <v>1.005716215865278</v>
       </c>
       <c r="U42">
-        <v>1.438529308831755</v>
+        <v>1.005804642037056</v>
       </c>
       <c r="V42">
-        <v>1.083577964490154</v>
+        <v>1.005651918058144</v>
       </c>
       <c r="W42">
-        <v>0.8656294534313868</v>
+        <v>1.005220753130628</v>
       </c>
       <c r="X42">
-        <v>0.7838561318965197</v>
+        <v>1.004732322141786</v>
       </c>
       <c r="Y42">
-        <v>0.7771749852337183</v>
+        <v>1.004157565473395</v>
       </c>
       <c r="Z42">
-        <v>0.7997684054641437</v>
+        <v>1.003556802805809</v>
       </c>
       <c r="AA42">
-        <v>0.8311268254534976</v>
+        <v>1.002981815963809</v>
       </c>
       <c r="AB42">
-        <v>0.8645237843407606</v>
+        <v>1.002370595971192</v>
       </c>
       <c r="AC42">
-        <v>0.8983509800339947</v>
+        <v>1.001788570872984</v>
       </c>
       <c r="AD42">
-        <v>0.9322218471832511</v>
+        <v>1.001186221432674</v>
       </c>
       <c r="AE42">
-        <v>0.9661131184105963</v>
+        <v>1.000595774470192</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4265,88 +4265,88 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1.033562072154325</v>
+        <v>1.000596225271362</v>
       </c>
       <c r="E43">
-        <v>1.071651873153465</v>
+        <v>1.001185774137118</v>
       </c>
       <c r="F43">
-        <v>1.106954795669038</v>
+        <v>1.00178804983678</v>
       </c>
       <c r="G43">
-        <v>1.130645618154749</v>
+        <v>1.002373395423979</v>
       </c>
       <c r="H43">
-        <v>1.197915368026112</v>
+        <v>1.002974693393549</v>
       </c>
       <c r="I43">
-        <v>1.173453123017992</v>
+        <v>1.003565682704268</v>
       </c>
       <c r="J43">
-        <v>1.289571092805245</v>
+        <v>1.004135682219939</v>
       </c>
       <c r="K43">
-        <v>1.250390598584723</v>
+        <v>1.004711375985953</v>
       </c>
       <c r="L43">
-        <v>1.30323055270587</v>
+        <v>1.005142008839249</v>
       </c>
       <c r="M43">
-        <v>1.415676862130936</v>
+        <v>1.005453116616736</v>
       </c>
       <c r="N43">
-        <v>1.308773670682678</v>
+        <v>1.005527972972595</v>
       </c>
       <c r="O43">
-        <v>1.416631256102715</v>
+        <v>1.005348347037507</v>
       </c>
       <c r="P43">
-        <v>1.565048794618634</v>
+        <v>1.005274854258615</v>
       </c>
       <c r="Q43">
-        <v>1.415576209784757</v>
+        <v>1.005375240347781</v>
       </c>
       <c r="R43">
-        <v>1.388922794953817</v>
+        <v>1.005375240347781</v>
       </c>
       <c r="S43">
-        <v>1.668901563520792</v>
+        <v>1.005274854258615</v>
       </c>
       <c r="T43">
-        <v>1.831576174592386</v>
+        <v>1.005348347037507</v>
       </c>
       <c r="U43">
-        <v>1.632997008107843</v>
+        <v>1.005527972972595</v>
       </c>
       <c r="V43">
-        <v>1.263997419999658</v>
+        <v>1.005453116616736</v>
       </c>
       <c r="W43">
-        <v>0.9719492611748959</v>
+        <v>1.005142008839249</v>
       </c>
       <c r="X43">
-        <v>0.8294950216057871</v>
+        <v>1.004711375985953</v>
       </c>
       <c r="Y43">
-        <v>0.7923155362642371</v>
+        <v>1.004135682219939</v>
       </c>
       <c r="Z43">
-        <v>0.8038062639742714</v>
+        <v>1.003565682704268</v>
       </c>
       <c r="AA43">
-        <v>0.8319943451113455</v>
+        <v>1.002974693393549</v>
       </c>
       <c r="AB43">
-        <v>0.8646838135155048</v>
+        <v>1.002373395423979</v>
       </c>
       <c r="AC43">
-        <v>0.8983740697955964</v>
+        <v>1.00178804983678</v>
       </c>
       <c r="AD43">
-        <v>0.9322243773675821</v>
+        <v>1.001185774137118</v>
       </c>
       <c r="AE43">
-        <v>0.9661138832545366</v>
+        <v>1.000596225271362</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4360,88 +4360,88 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1.039174575107805</v>
+        <v>1.00059500697113</v>
       </c>
       <c r="E44">
-        <v>1.060941744903526</v>
+        <v>1.001188508550039</v>
       </c>
       <c r="F44">
-        <v>1.121120410537548</v>
+        <v>1.00178329627246</v>
       </c>
       <c r="G44">
-        <v>1.116833013530959</v>
+        <v>1.002380182972359</v>
       </c>
       <c r="H44">
-        <v>1.20457268417862</v>
+        <v>1.002964993658577</v>
       </c>
       <c r="I44">
-        <v>1.182900608685083</v>
+        <v>1.003569315153964</v>
       </c>
       <c r="J44">
-        <v>1.25743320458808</v>
+        <v>1.004115222529069</v>
       </c>
       <c r="K44">
-        <v>1.300314825149969</v>
+        <v>1.00465416460194</v>
       </c>
       <c r="L44">
-        <v>1.259815602781819</v>
+        <v>1.005033383278917</v>
       </c>
       <c r="M44">
-        <v>1.41419126629615</v>
+        <v>1.00519525231992</v>
       </c>
       <c r="N44">
-        <v>1.370250104223887</v>
+        <v>1.005187683335397</v>
       </c>
       <c r="O44">
-        <v>1.344732935969629</v>
+        <v>1.005007011498786</v>
       </c>
       <c r="P44">
-        <v>1.549754000822546</v>
+        <v>1.004954649585136</v>
       </c>
       <c r="Q44">
-        <v>1.518814703984702</v>
+        <v>1.005114190043076</v>
       </c>
       <c r="R44">
-        <v>1.369586901133357</v>
+        <v>1.005114190043076</v>
       </c>
       <c r="S44">
-        <v>1.537323819929794</v>
+        <v>1.004954649585136</v>
       </c>
       <c r="T44">
-        <v>1.813533839291355</v>
+        <v>1.005007011498786</v>
       </c>
       <c r="U44">
-        <v>1.78485960197802</v>
+        <v>1.005187683335397</v>
       </c>
       <c r="V44">
-        <v>1.463654732830018</v>
+        <v>1.00519525231992</v>
       </c>
       <c r="W44">
-        <v>1.115667548732318</v>
+        <v>1.005033383278917</v>
       </c>
       <c r="X44">
-        <v>0.9014525998719444</v>
+        <v>1.00465416460194</v>
       </c>
       <c r="Y44">
-        <v>0.8196236405576521</v>
+        <v>1.004115222529069</v>
       </c>
       <c r="Z44">
-        <v>0.8120184608411588</v>
+        <v>1.003569315153964</v>
       </c>
       <c r="AA44">
-        <v>0.8339872115859648</v>
+        <v>1.002964993658577</v>
       </c>
       <c r="AB44">
-        <v>0.865094039659232</v>
+        <v>1.002380182972359</v>
       </c>
       <c r="AC44">
-        <v>0.8984371723801717</v>
+        <v>1.00178329627246</v>
       </c>
       <c r="AD44">
-        <v>0.9322367071306552</v>
+        <v>1.001188508550039</v>
       </c>
       <c r="AE44">
-        <v>0.9661138008131042</v>
+        <v>1.00059500697113</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4455,88 +4455,88 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1.040435226733263</v>
+        <v>1.000593412322844</v>
       </c>
       <c r="E45">
-        <v>1.059834490613162</v>
+        <v>1.001191564498838</v>
       </c>
       <c r="F45">
-        <v>1.119169509745904</v>
+        <v>1.00177906745251</v>
       </c>
       <c r="G45">
-        <v>1.126027175820732</v>
+        <v>1.002383951517318</v>
       </c>
       <c r="H45">
-        <v>1.183877063795829</v>
+        <v>1.002960171625897</v>
       </c>
       <c r="I45">
-        <v>1.216399262201307</v>
+        <v>1.00355834407359</v>
       </c>
       <c r="J45">
-        <v>1.217382572535639</v>
+        <v>1.00409302151264</v>
       </c>
       <c r="K45">
-        <v>1.329393840982705</v>
+        <v>1.004557022368954</v>
       </c>
       <c r="L45">
-        <v>1.265119374328389</v>
+        <v>1.004870420309592</v>
       </c>
       <c r="M45">
-        <v>1.363126464064714</v>
+        <v>1.004895028516723</v>
       </c>
       <c r="N45">
-        <v>1.436332536219598</v>
+        <v>1.004804117985178</v>
       </c>
       <c r="O45">
-        <v>1.330469174113337</v>
+        <v>1.004697753440805</v>
       </c>
       <c r="P45">
-        <v>1.475469116603768</v>
+        <v>1.004687420504554</v>
       </c>
       <c r="Q45">
-        <v>1.592481071681272</v>
+        <v>1.004813254623885</v>
       </c>
       <c r="R45">
-        <v>1.429492187724843</v>
+        <v>1.004813254623885</v>
       </c>
       <c r="S45">
-        <v>1.432864351480079</v>
+        <v>1.004687420504554</v>
       </c>
       <c r="T45">
-        <v>1.7192704398216</v>
+        <v>1.004697753440805</v>
       </c>
       <c r="U45">
-        <v>1.86358953788953</v>
+        <v>1.004804117985178</v>
       </c>
       <c r="V45">
-        <v>1.656616466922953</v>
+        <v>1.004895028516723</v>
       </c>
       <c r="W45">
-        <v>1.292828895099072</v>
+        <v>1.004870420309592</v>
       </c>
       <c r="X45">
-        <v>1.006506675524622</v>
+        <v>1.004557022368954</v>
       </c>
       <c r="Y45">
-        <v>0.8654876897505168</v>
+        <v>1.00409302151264</v>
       </c>
       <c r="Z45">
-        <v>0.8276241403233711</v>
+        <v>1.00355834407359</v>
       </c>
       <c r="AA45">
-        <v>0.8382645973926995</v>
+        <v>1.002960171625897</v>
       </c>
       <c r="AB45">
-        <v>0.8660633419648776</v>
+        <v>1.002383951517318</v>
       </c>
       <c r="AC45">
-        <v>0.898614375472133</v>
+        <v>1.00177906745251</v>
       </c>
       <c r="AD45">
-        <v>0.9322684266267197</v>
+        <v>1.001191564498838</v>
       </c>
       <c r="AE45">
-        <v>0.9661159947477833</v>
+        <v>1.000593412322844</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4550,88 +4550,88 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1.03643688764538</v>
+        <v>1.000593002637844</v>
       </c>
       <c r="E46">
-        <v>1.068711175136008</v>
+        <v>1.001191958142057</v>
       </c>
       <c r="F46">
-        <v>1.104099270689782</v>
+        <v>1.001779183910344</v>
       </c>
       <c r="G46">
-        <v>1.147969393585572</v>
+        <v>1.00238055407322</v>
       </c>
       <c r="H46">
-        <v>1.156849521020634</v>
+        <v>1.002960837677996</v>
       </c>
       <c r="I46">
-        <v>1.242013193699745</v>
+        <v>1.003531499241056</v>
       </c>
       <c r="J46">
-        <v>1.205088930011381</v>
+        <v>1.004053151350528</v>
       </c>
       <c r="K46">
-        <v>1.314401423040096</v>
+        <v>1.004422229407048</v>
       </c>
       <c r="L46">
-        <v>1.310993534972619</v>
+        <v>1.00463525990689</v>
       </c>
       <c r="M46">
-        <v>1.305861407437919</v>
+        <v>1.004565925028857</v>
       </c>
       <c r="N46">
-        <v>1.457647609650022</v>
+        <v>1.004416689131751</v>
       </c>
       <c r="O46">
-        <v>1.378921238406218</v>
+        <v>1.004412503284854</v>
       </c>
       <c r="P46">
-        <v>1.394187235531758</v>
+        <v>1.004454233187868</v>
       </c>
       <c r="Q46">
-        <v>1.596147229619358</v>
+        <v>1.004480860674863</v>
       </c>
       <c r="R46">
-        <v>1.530987736244245</v>
+        <v>1.004480860674863</v>
       </c>
       <c r="S46">
-        <v>1.399163364176934</v>
+        <v>1.004454233187868</v>
       </c>
       <c r="T46">
-        <v>1.589485292783448</v>
+        <v>1.004412503284854</v>
       </c>
       <c r="U46">
-        <v>1.854496431542414</v>
+        <v>1.004416689131751</v>
       </c>
       <c r="V46">
-        <v>1.810374575801562</v>
+        <v>1.004565925028857</v>
       </c>
       <c r="W46">
-        <v>1.489356579528184</v>
+        <v>1.00463525990689</v>
       </c>
       <c r="X46">
-        <v>1.147886559627386</v>
+        <v>1.004422229407048</v>
       </c>
       <c r="Y46">
-        <v>0.9371405980301212</v>
+        <v>1.004053151350528</v>
       </c>
       <c r="Z46">
-        <v>0.855355821429702</v>
+        <v>1.003531499241056</v>
       </c>
       <c r="AA46">
-        <v>0.8468315550751466</v>
+        <v>1.002960837677996</v>
       </c>
       <c r="AB46">
-        <v>0.8682207165042924</v>
+        <v>1.00238055407322</v>
       </c>
       <c r="AC46">
-        <v>0.899067332975927</v>
+        <v>1.001779183910344</v>
       </c>
       <c r="AD46">
-        <v>0.9323485253644033</v>
+        <v>1.001191958142057</v>
       </c>
       <c r="AE46">
-        <v>0.9661272979652508</v>
+        <v>1.000593002637844</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4645,88 +4645,88 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1.031397898518809</v>
+        <v>1.000594081169437</v>
       </c>
       <c r="E47">
-        <v>1.078366311674641</v>
+        <v>1.001189419351294</v>
       </c>
       <c r="F47">
-        <v>1.091149538469164</v>
+        <v>1.001782836466825</v>
       </c>
       <c r="G47">
-        <v>1.16116411248523</v>
+        <v>1.002371884989597</v>
       </c>
       <c r="H47">
-        <v>1.148892864556451</v>
+        <v>1.002959098219666</v>
       </c>
       <c r="I47">
-        <v>1.237105141106315</v>
+        <v>1.003492402045124</v>
       </c>
       <c r="J47">
-        <v>1.229354476666393</v>
+        <v>1.003975137675177</v>
       </c>
       <c r="K47">
-        <v>1.271228909823439</v>
+        <v>1.004248424555973</v>
       </c>
       <c r="L47">
-        <v>1.356436635750043</v>
+        <v>1.004329508159719</v>
       </c>
       <c r="M47">
-        <v>1.287825933247824</v>
+        <v>1.004216846286222</v>
       </c>
       <c r="N47">
-        <v>1.421334539716469</v>
+        <v>1.004065522790876</v>
       </c>
       <c r="O47">
-        <v>1.450871394791436</v>
+        <v>1.004138732066381</v>
       </c>
       <c r="P47">
-        <v>1.359578853700263</v>
+        <v>1.004217270267177</v>
       </c>
       <c r="Q47">
-        <v>1.533033515691767</v>
+        <v>1.004141809854091</v>
       </c>
       <c r="R47">
-        <v>1.615817065090598</v>
+        <v>1.004141809854091</v>
       </c>
       <c r="S47">
-        <v>1.445998952042246</v>
+        <v>1.004217270267177</v>
       </c>
       <c r="T47">
-        <v>1.478372448283408</v>
+        <v>1.004138732066381</v>
       </c>
       <c r="U47">
-        <v>1.768120076570343</v>
+        <v>1.004065522790876</v>
       </c>
       <c r="V47">
-        <v>1.89490864954704</v>
+        <v>1.004216846286222</v>
       </c>
       <c r="W47">
-        <v>1.680771258050441</v>
+        <v>1.004329508159719</v>
       </c>
       <c r="X47">
-        <v>1.321947458306032</v>
+        <v>1.004248424555973</v>
       </c>
       <c r="Y47">
-        <v>1.041033802558937</v>
+        <v>1.003975137675177</v>
       </c>
       <c r="Z47">
-        <v>0.9014026300974989</v>
+        <v>1.003492402045124</v>
       </c>
       <c r="AA47">
-        <v>0.8628768697035191</v>
+        <v>1.002959098219666</v>
       </c>
       <c r="AB47">
-        <v>0.8727424548043297</v>
+        <v>1.002371884989597</v>
       </c>
       <c r="AC47">
-        <v>0.9001289344589316</v>
+        <v>1.001782836466825</v>
       </c>
       <c r="AD47">
-        <v>0.9325530191551797</v>
+        <v>1.001189419351294</v>
       </c>
       <c r="AE47">
-        <v>0.9661620835411935</v>
+        <v>1.000594081169437</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4740,88 +4740,88 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1.030251538051494</v>
+        <v>1.000595473954134</v>
       </c>
       <c r="E48">
-        <v>1.079475151622947</v>
+        <v>1.00118640029395</v>
       </c>
       <c r="F48">
-        <v>1.092507643053932</v>
+        <v>1.001785396875116</v>
       </c>
       <c r="G48">
-        <v>1.153787375898676</v>
+        <v>1.002362757082798</v>
       </c>
       <c r="H48">
-        <v>1.166057089211929</v>
+        <v>1.002943881410183</v>
       </c>
       <c r="I48">
-        <v>1.208206353265438</v>
+        <v>1.003440662800342</v>
       </c>
       <c r="J48">
-        <v>1.266026297720646</v>
+        <v>1.003844761812513</v>
       </c>
       <c r="K48">
-        <v>1.238889719799171</v>
+        <v>1.004026568885635</v>
       </c>
       <c r="L48">
-        <v>1.363425129420262</v>
+        <v>1.003975320043238</v>
       </c>
       <c r="M48">
-        <v>1.320320286300446</v>
+        <v>1.003858102138126</v>
       </c>
       <c r="N48">
-        <v>1.359028531934497</v>
+        <v>1.003770489642715</v>
       </c>
       <c r="O48">
-        <v>1.492614202135119</v>
+        <v>1.003866293079231</v>
       </c>
       <c r="P48">
-        <v>1.391157272639437</v>
+        <v>1.003941807693015</v>
       </c>
       <c r="Q48">
-        <v>1.447252023616007</v>
+        <v>1.003821624136591</v>
       </c>
       <c r="R48">
-        <v>1.637495978325154</v>
+        <v>1.003821624136591</v>
       </c>
       <c r="S48">
-        <v>1.543382442229936</v>
+        <v>1.003941807693015</v>
       </c>
       <c r="T48">
-        <v>1.431603136794811</v>
+        <v>1.003866293079231</v>
       </c>
       <c r="U48">
-        <v>1.641003957770712</v>
+        <v>1.003770489642715</v>
       </c>
       <c r="V48">
-        <v>1.894211232174193</v>
+        <v>1.003858102138126</v>
       </c>
       <c r="W48">
-        <v>1.836014334510745</v>
+        <v>1.003975320043238</v>
       </c>
       <c r="X48">
-        <v>1.515485892984008</v>
+        <v>1.004026568885635</v>
       </c>
       <c r="Y48">
-        <v>1.180247627909167</v>
+        <v>1.003844761812513</v>
       </c>
       <c r="Z48">
-        <v>0.9727257917821605</v>
+        <v>1.003440662800342</v>
       </c>
       <c r="AA48">
-        <v>0.8910200207055892</v>
+        <v>1.002943881410183</v>
       </c>
       <c r="AB48">
-        <v>0.8816444167428145</v>
+        <v>1.002362757082798</v>
       </c>
       <c r="AC48">
-        <v>0.9024499372023479</v>
+        <v>1.001785396875116</v>
       </c>
       <c r="AD48">
-        <v>0.9330537578683977</v>
+        <v>1.00118640029395</v>
       </c>
       <c r="AE48">
-        <v>0.9662540821353346</v>
+        <v>1.000595473954134</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4835,88 +4835,88 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1.033848196464168</v>
+        <v>1.000595729835252</v>
       </c>
       <c r="E49">
-        <v>1.071536211036135</v>
+        <v>1.001185398796943</v>
       </c>
       <c r="F49">
-        <v>1.105927557992139</v>
+        <v>1.001782548190036</v>
       </c>
       <c r="G49">
-        <v>1.134158134429249</v>
+        <v>1.002354570205925</v>
       </c>
       <c r="H49">
-        <v>1.190691201552472</v>
+        <v>1.002907578866393</v>
       </c>
       <c r="I49">
-        <v>1.183225235524986</v>
+        <v>1.003365752961062</v>
       </c>
       <c r="J49">
-        <v>1.281458988180729</v>
+        <v>1.003658812965086</v>
       </c>
       <c r="K49">
-        <v>1.244468526660545</v>
+        <v>1.003746449236417</v>
       </c>
       <c r="L49">
-        <v>1.328503559905253</v>
+        <v>1.003604639661078</v>
       </c>
       <c r="M49">
-        <v>1.373267911541534</v>
+        <v>1.003506759342455</v>
       </c>
       <c r="N49">
-        <v>1.320441880294168</v>
+        <v>1.003521310477535</v>
       </c>
       <c r="O49">
-        <v>1.475596359554726</v>
+        <v>1.003588781886398</v>
       </c>
       <c r="P49">
-        <v>1.462123611696674</v>
+        <v>1.003617420576301</v>
       </c>
       <c r="Q49">
-        <v>1.395007832473391</v>
+        <v>1.003531484308197</v>
       </c>
       <c r="R49">
-        <v>1.58808551885862</v>
+        <v>1.003531484308197</v>
       </c>
       <c r="S49">
-        <v>1.63634949008265</v>
+        <v>1.003617420576301</v>
       </c>
       <c r="T49">
-        <v>1.465128856908971</v>
+        <v>1.003588781886398</v>
       </c>
       <c r="U49">
-        <v>1.524839452327977</v>
+        <v>1.003521310477535</v>
       </c>
       <c r="V49">
-        <v>1.815662771784614</v>
+        <v>1.003506759342455</v>
       </c>
       <c r="W49">
-        <v>1.925674525005227</v>
+        <v>1.003604639661078</v>
       </c>
       <c r="X49">
-        <v>1.705346871774957</v>
+        <v>1.003746449236417</v>
       </c>
       <c r="Y49">
-        <v>1.351390560496356</v>
+        <v>1.003658812965086</v>
       </c>
       <c r="Z49">
-        <v>1.075502969729431</v>
+        <v>1.003365752961062</v>
       </c>
       <c r="AA49">
-        <v>0.9372457134861082</v>
+        <v>1.002907578866393</v>
       </c>
       <c r="AB49">
-        <v>0.8980916597868762</v>
+        <v>1.002354570205925</v>
       </c>
       <c r="AC49">
-        <v>0.9072205149973931</v>
+        <v>1.001782548190036</v>
       </c>
       <c r="AD49">
-        <v>0.9342036224818374</v>
+        <v>1.001185398796943</v>
       </c>
       <c r="AE49">
-        <v>0.9664824791289077</v>
+        <v>1.000595729835252</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4930,88 +4930,88 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1.038404809403792</v>
+        <v>1.000594470497979</v>
       </c>
       <c r="E50">
-        <v>1.062773103545333</v>
+        <v>1.001186267407787</v>
       </c>
       <c r="F50">
-        <v>1.117807280300623</v>
+        <v>1.001773417660655</v>
       </c>
       <c r="G50">
-        <v>1.121604515631351</v>
+        <v>1.002341629990196</v>
       </c>
       <c r="H50">
-        <v>1.199325555605337</v>
+        <v>1.002847567681153</v>
       </c>
       <c r="I50">
-        <v>1.184669047455341</v>
+        <v>1.003249564599121</v>
       </c>
       <c r="J50">
-        <v>1.263085625096831</v>
+        <v>1.003421508184486</v>
       </c>
       <c r="K50">
-        <v>1.280303707213142</v>
+        <v>1.003408968125532</v>
       </c>
       <c r="L50">
-        <v>1.283764319988137</v>
+        <v>1.003244941593097</v>
       </c>
       <c r="M50">
-        <v>1.40181794106171</v>
+        <v>1.003183524410209</v>
       </c>
       <c r="N50">
-        <v>1.333850356280819</v>
+        <v>1.003285361380802</v>
       </c>
       <c r="O50">
-        <v>1.41642171019468</v>
+        <v>1.003301562513824</v>
       </c>
       <c r="P50">
-        <v>1.519679192912603</v>
+        <v>1.003264389720085</v>
       </c>
       <c r="Q50">
-        <v>1.407812007732903</v>
+        <v>1.003262828546828</v>
       </c>
       <c r="R50">
-        <v>1.502471630601786</v>
+        <v>1.003262828546828</v>
       </c>
       <c r="S50">
-        <v>1.674445386835936</v>
+        <v>1.003264389720085</v>
       </c>
       <c r="T50">
-        <v>1.556387384171302</v>
+        <v>1.003301562513824</v>
       </c>
       <c r="U50">
-        <v>1.46645312789465</v>
+        <v>1.003285361380802</v>
       </c>
       <c r="V50">
-        <v>1.691911419836029</v>
+        <v>1.003183524410209</v>
       </c>
       <c r="W50">
-        <v>1.932749863886988</v>
+        <v>1.003244941593097</v>
       </c>
       <c r="X50">
-        <v>1.861800686053824</v>
+        <v>1.003408968125532</v>
       </c>
       <c r="Y50">
-        <v>1.542050673211464</v>
+        <v>1.003421508184486</v>
       </c>
       <c r="Z50">
-        <v>1.212687731307602</v>
+        <v>1.003249564599121</v>
       </c>
       <c r="AA50">
-        <v>1.00824720690265</v>
+        <v>1.002847567681153</v>
       </c>
       <c r="AB50">
-        <v>0.9266096300583752</v>
+        <v>1.002341629990196</v>
       </c>
       <c r="AC50">
-        <v>0.9164546558609202</v>
+        <v>1.001773417660655</v>
       </c>
       <c r="AD50">
-        <v>0.9366774243859337</v>
+        <v>1.001186267407787</v>
       </c>
       <c r="AE50">
-        <v>0.9670205421784864</v>
+        <v>1.000594470497979</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5025,88 +5025,88 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1.039452293527854</v>
+        <v>1.000592542763663</v>
       </c>
       <c r="E51">
-        <v>1.061676466707968</v>
+        <v>1.001185974354396</v>
       </c>
       <c r="F51">
-        <v>1.116877767252966</v>
+        <v>1.001759552650442</v>
       </c>
       <c r="G51">
-        <v>1.127531847994267</v>
+        <v>1.002313121114822</v>
       </c>
       <c r="H51">
-        <v>1.184865522627207</v>
+        <v>1.002761571302666</v>
       </c>
       <c r="I51">
-        <v>1.209381130833568</v>
+        <v>1.00307586290403</v>
       </c>
       <c r="J51">
-        <v>1.229412638131637</v>
+        <v>1.003138082492807</v>
       </c>
       <c r="K51">
-        <v>1.31269952043041</v>
+        <v>1.003033615396276</v>
       </c>
       <c r="L51">
-        <v>1.267673332145666</v>
+        <v>1.002910895862503</v>
       </c>
       <c r="M51">
-        <v>1.383862669118269</v>
+        <v>1.002901103016334</v>
       </c>
       <c r="N51">
-        <v>1.384893566941158</v>
+        <v>1.003028003324676</v>
       </c>
       <c r="O51">
-        <v>1.36241859303565</v>
+        <v>1.003000999659561</v>
       </c>
       <c r="P51">
-        <v>1.523453607154127</v>
+        <v>1.00292026176899</v>
       </c>
       <c r="Q51">
-        <v>1.472247885004561</v>
+        <v>1.002994563078774</v>
       </c>
       <c r="R51">
-        <v>1.436186275686269</v>
+        <v>1.002994563078774</v>
       </c>
       <c r="S51">
-        <v>1.640033343864526</v>
+        <v>1.00292026176899</v>
       </c>
       <c r="T51">
-        <v>1.654676848030629</v>
+        <v>1.003000999659561</v>
       </c>
       <c r="U51">
-        <v>1.48691494051583</v>
+        <v>1.003028003324676</v>
       </c>
       <c r="V51">
-        <v>1.572005105914839</v>
+        <v>1.002901103016334</v>
       </c>
       <c r="W51">
-        <v>1.861878297297719</v>
+        <v>1.002910895862503</v>
       </c>
       <c r="X51">
-        <v>1.956054291580392</v>
+        <v>1.003033615396276</v>
       </c>
       <c r="Y51">
-        <v>1.730307553661196</v>
+        <v>1.003138082492807</v>
       </c>
       <c r="Z51">
-        <v>1.3811030972605</v>
+        <v>1.00307586290403</v>
       </c>
       <c r="AA51">
-        <v>1.109949437209361</v>
+        <v>1.002761571302666</v>
       </c>
       <c r="AB51">
-        <v>0.9729982509915789</v>
+        <v>1.002313121114822</v>
       </c>
       <c r="AC51">
-        <v>0.9332832324050646</v>
+        <v>1.001759552650442</v>
       </c>
       <c r="AD51">
-        <v>0.9416813136069148</v>
+        <v>1.001185974354396</v>
       </c>
       <c r="AE51">
-        <v>0.9682176902353055</v>
+        <v>1.000592542763663</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5120,88 +5120,88 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1.03619274756498</v>
+        <v>1.000590837236115</v>
       </c>
       <c r="E52">
-        <v>1.068824111711824</v>
+        <v>1.001180717977334</v>
       </c>
       <c r="F52">
-        <v>1.104811449254385</v>
+        <v>1.001740685182313</v>
       </c>
       <c r="G52">
-        <v>1.145129078830093</v>
+        <v>1.002258332670313</v>
       </c>
       <c r="H52">
-        <v>1.162200973042432</v>
+        <v>1.002642035277559</v>
       </c>
       <c r="I52">
-        <v>1.232972188984722</v>
+        <v>1.002839143205791</v>
       </c>
       <c r="J52">
-        <v>1.211553494916619</v>
+        <v>1.0028129851298</v>
       </c>
       <c r="K52">
-        <v>1.313017066001799</v>
+        <v>1.00265369955771</v>
       </c>
       <c r="L52">
-        <v>1.291886225617532</v>
+        <v>1.00260508180381</v>
       </c>
       <c r="M52">
-        <v>1.337117787387401</v>
+        <v>1.002652854911086</v>
       </c>
       <c r="N52">
-        <v>1.430060309669398</v>
+        <v>1.002732169275185</v>
       </c>
       <c r="O52">
-        <v>1.354292972882617</v>
+        <v>1.002687003248933</v>
       </c>
       <c r="P52">
-        <v>1.47416783732864</v>
+        <v>1.002614893617984</v>
       </c>
       <c r="Q52">
-        <v>1.540469790484037</v>
+        <v>1.002707722283274</v>
       </c>
       <c r="R52">
-        <v>1.42987809014489</v>
+        <v>1.002707722283274</v>
       </c>
       <c r="S52">
-        <v>1.558320409890078</v>
+        <v>1.002614893617984</v>
       </c>
       <c r="T52">
-        <v>1.70736495896973</v>
+        <v>1.002687003248933</v>
       </c>
       <c r="U52">
-        <v>1.570589771365462</v>
+        <v>1.002732169275185</v>
       </c>
       <c r="V52">
-        <v>1.503294548489617</v>
+        <v>1.002652854911086</v>
       </c>
       <c r="W52">
-        <v>1.742082431433398</v>
+        <v>1.00260508180381</v>
       </c>
       <c r="X52">
-        <v>1.970327214056492</v>
+        <v>1.00265369955771</v>
       </c>
       <c r="Y52">
-        <v>1.887700004490554</v>
+        <v>1.0028129851298</v>
       </c>
       <c r="Z52">
-        <v>1.569031162300788</v>
+        <v>1.002839143205791</v>
       </c>
       <c r="AA52">
-        <v>1.245202285974411</v>
+        <v>1.002642035277559</v>
       </c>
       <c r="AB52">
-        <v>1.043695913832599</v>
+        <v>1.002258332670313</v>
       </c>
       <c r="AC52">
-        <v>0.9621400838963002</v>
+        <v>1.001740685182313</v>
       </c>
       <c r="AD52">
-        <v>0.9512197766845309</v>
+        <v>1.001180717977334</v>
       </c>
       <c r="AE52">
-        <v>0.9707263215762004</v>
+        <v>1.000590837236115</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5215,88 +5215,88 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1.032042855747573</v>
+        <v>1.000588892584843</v>
       </c>
       <c r="E53">
-        <v>1.07681075006461</v>
+        <v>1.001167983216212</v>
       </c>
       <c r="F53">
-        <v>1.09382770426409</v>
+        <v>1.001711237784939</v>
       </c>
       <c r="G53">
-        <v>1.156914875825076</v>
+        <v>1.002170058005616</v>
       </c>
       <c r="H53">
-        <v>1.152961253890145</v>
+        <v>1.002475850582699</v>
       </c>
       <c r="I53">
-        <v>1.233515769633277</v>
+        <v>1.002546607006497</v>
       </c>
       <c r="J53">
-        <v>1.224414917989922</v>
+        <v>1.002454605892769</v>
       </c>
       <c r="K53">
-        <v>1.282686008705826</v>
+        <v>1.002301450673691</v>
       </c>
       <c r="L53">
-        <v>1.332689719627932</v>
+        <v>1.002323365460411</v>
       </c>
       <c r="M53">
-        <v>1.302300645784565</v>
+        <v>1.002412492120044</v>
       </c>
       <c r="N53">
-        <v>1.433049587630443</v>
+        <v>1.002405215128107</v>
       </c>
       <c r="O53">
-        <v>1.395077903037785</v>
+        <v>1.002366270937131</v>
       </c>
       <c r="P53">
-        <v>1.411488839680497</v>
+        <v>1.002350760041037</v>
       </c>
       <c r="Q53">
-        <v>1.564468282589876</v>
+        <v>1.00239767432145</v>
       </c>
       <c r="R53">
-        <v>1.483328409624594</v>
+        <v>1.00239767432145</v>
       </c>
       <c r="S53">
-        <v>1.481758033249245</v>
+        <v>1.002350760041037</v>
       </c>
       <c r="T53">
-        <v>1.688598135737851</v>
+        <v>1.002366270937131</v>
       </c>
       <c r="U53">
-        <v>1.6716345933972</v>
+        <v>1.002405215128107</v>
       </c>
       <c r="V53">
-        <v>1.511104767519301</v>
+        <v>1.002412492120044</v>
       </c>
       <c r="W53">
-        <v>1.619650790488905</v>
+        <v>1.002323365460411</v>
       </c>
       <c r="X53">
-        <v>1.906882138485334</v>
+        <v>1.002301450673691</v>
       </c>
       <c r="Y53">
-        <v>1.986082047163954</v>
+        <v>1.002454605892769</v>
       </c>
       <c r="Z53">
-        <v>1.755669218806923</v>
+        <v>1.002546607006497</v>
       </c>
       <c r="AA53">
-        <v>1.411035760785603</v>
+        <v>1.002475850582699</v>
       </c>
       <c r="AB53">
-        <v>1.144381212224998</v>
+        <v>1.002170058005616</v>
       </c>
       <c r="AC53">
-        <v>1.008655816068668</v>
+        <v>1.001711237784939</v>
       </c>
       <c r="AD53">
-        <v>0.9683649527880068</v>
+        <v>1.001167983216212</v>
       </c>
       <c r="AE53">
-        <v>0.975676736300128</v>
+        <v>1.000588892584843</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5310,88 +5310,88 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>1.031074223572532</v>
+        <v>1.000584497445202</v>
       </c>
       <c r="E54">
-        <v>1.077859653388006</v>
+        <v>1.001146289439429</v>
       </c>
       <c r="F54">
-        <v>1.094361513614172</v>
+        <v>1.001660681800552</v>
       </c>
       <c r="G54">
-        <v>1.151940474446081</v>
+        <v>1.00204352643002</v>
       </c>
       <c r="H54">
-        <v>1.164848569157373</v>
+        <v>1.002250906849517</v>
       </c>
       <c r="I54">
-        <v>1.211645508435211</v>
+        <v>1.002213381422821</v>
       </c>
       <c r="J54">
-        <v>1.25411932665304</v>
+        <v>1.0020809381294</v>
       </c>
       <c r="K54">
-        <v>1.250288106461404</v>
+        <v>1.001992969291121</v>
       </c>
       <c r="L54">
-        <v>1.353395017446963</v>
+        <v>1.00205845208524</v>
       </c>
       <c r="M54">
-        <v>1.30776800810404</v>
+        <v>1.00214802841611</v>
       </c>
       <c r="N54">
-        <v>1.393858708981855</v>
+        <v>1.00207034418127</v>
       </c>
       <c r="O54">
-        <v>1.449458488501796</v>
+        <v>1.00205139694905</v>
       </c>
       <c r="P54">
-        <v>1.382951968599021</v>
+        <v>1.002102232758217</v>
       </c>
       <c r="Q54">
-        <v>1.52993694572705</v>
+        <v>1.002075897789524</v>
       </c>
       <c r="R54">
-        <v>1.556671103251783</v>
+        <v>1.002075897789524</v>
       </c>
       <c r="S54">
-        <v>1.457298276324401</v>
+        <v>1.002102232758217</v>
       </c>
       <c r="T54">
-        <v>1.613880401298658</v>
+        <v>1.00205139694905</v>
       </c>
       <c r="U54">
-        <v>1.736787844544626</v>
+        <v>1.00207034418127</v>
       </c>
       <c r="V54">
-        <v>1.586183948760861</v>
+        <v>1.00214802841611</v>
       </c>
       <c r="W54">
-        <v>1.541890480801119</v>
+        <v>1.00205845208524</v>
       </c>
       <c r="X54">
-        <v>1.791429203084724</v>
+        <v>1.001992969291121</v>
       </c>
       <c r="Y54">
-        <v>2.007060905578442</v>
+        <v>1.0020809381294</v>
       </c>
       <c r="Z54">
-        <v>1.913752117896985</v>
+        <v>1.002213381422821</v>
       </c>
       <c r="AA54">
-        <v>1.596363962961973</v>
+        <v>1.002250906849517</v>
       </c>
       <c r="AB54">
-        <v>1.277798798718465</v>
+        <v>1.00204352643002</v>
       </c>
       <c r="AC54">
-        <v>1.079030181459953</v>
+        <v>1.001660681800552</v>
       </c>
       <c r="AD54">
-        <v>0.9974107905896785</v>
+        <v>1.001146289439429</v>
       </c>
       <c r="AE54">
-        <v>0.9848800210709933</v>
+        <v>1.000584497445202</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5405,88 +5405,88 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1.034033392958226</v>
+        <v>1.000574425942818</v>
       </c>
       <c r="E55">
-        <v>1.071337664314075</v>
+        <v>1.001112745754371</v>
       </c>
       <c r="F55">
-        <v>1.10516459811569</v>
+        <v>1.001577238883252</v>
       </c>
       <c r="G55">
-        <v>1.135798356536931</v>
+        <v>1.001873128801932</v>
       </c>
       <c r="H55">
-        <v>1.185208095566239</v>
+        <v>1.001964736654788</v>
       </c>
       <c r="I55">
-        <v>1.188694466972142</v>
+        <v>1.001856426372464</v>
       </c>
       <c r="J55">
-        <v>1.272247475713792</v>
+        <v>1.001718388979817</v>
       </c>
       <c r="K55">
-        <v>1.24462473701128</v>
+        <v>1.001722850816651</v>
       </c>
       <c r="L55">
-        <v>1.336916835183873</v>
+        <v>1.001799562094257</v>
       </c>
       <c r="M55">
-        <v>1.346164797978699</v>
+        <v>1.001841749570748</v>
       </c>
       <c r="N55">
-        <v>1.347045099993797</v>
+        <v>1.001750157485087</v>
       </c>
       <c r="O55">
-        <v>1.473312499110128</v>
+        <v>1.001753968721316</v>
       </c>
       <c r="P55">
-        <v>1.407787971775246</v>
+        <v>1.001834412780933</v>
       </c>
       <c r="Q55">
-        <v>1.4653429039634</v>
+        <v>1.00176070499977</v>
       </c>
       <c r="R55">
-        <v>1.598487050765942</v>
+        <v>1.00176070499977</v>
       </c>
       <c r="S55">
-        <v>1.496827257374967</v>
+        <v>1.001834412780933</v>
       </c>
       <c r="T55">
-        <v>1.530743996427392</v>
+        <v>1.001753968721316</v>
       </c>
       <c r="U55">
-        <v>1.733563260934618</v>
+        <v>1.001750157485087</v>
       </c>
       <c r="V55">
-        <v>1.687840736958427</v>
+        <v>1.001841749570748</v>
       </c>
       <c r="W55">
-        <v>1.53758821867417</v>
+        <v>1.001799562094257</v>
       </c>
       <c r="X55">
-        <v>1.667499512736641</v>
+        <v>1.001722850816651</v>
       </c>
       <c r="Y55">
-        <v>1.950804641449136</v>
+        <v>1.001718388979817</v>
       </c>
       <c r="Z55">
-        <v>2.015815175173659</v>
+        <v>1.001856426372464</v>
       </c>
       <c r="AA55">
-        <v>1.781397912811219</v>
+        <v>1.001964736654788</v>
       </c>
       <c r="AB55">
-        <v>1.441165521958182</v>
+        <v>1.001873128801932</v>
       </c>
       <c r="AC55">
-        <v>1.178691853448298</v>
+        <v>1.001577238883252</v>
       </c>
       <c r="AD55">
-        <v>1.043728783729247</v>
+        <v>1.001112745754371</v>
       </c>
       <c r="AE55">
-        <v>1.000995992953781</v>
+        <v>1.000574425942818</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5500,88 +5500,88 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1.037810281943326</v>
+        <v>1.000555327907617</v>
       </c>
       <c r="E56">
-        <v>1.063946340851586</v>
+        <v>1.001060745398644</v>
       </c>
       <c r="F56">
-        <v>1.115169388772115</v>
+        <v>1.001451645163402</v>
       </c>
       <c r="G56">
-        <v>1.124350233779798</v>
+        <v>1.001651660657388</v>
       </c>
       <c r="H56">
-        <v>1.194086780069253</v>
+        <v>1.001628586926263</v>
       </c>
       <c r="I56">
-        <v>1.18576008484301</v>
+        <v>1.001492039544525</v>
       </c>
       <c r="J56">
-        <v>1.262581687913503</v>
+        <v>1.001391464637604</v>
       </c>
       <c r="K56">
-        <v>1.268940076779932</v>
+        <v>1.001470794702374</v>
       </c>
       <c r="L56">
-        <v>1.299677619076342</v>
+        <v>1.001532041152996</v>
       </c>
       <c r="M56">
-        <v>1.382469672658426</v>
+        <v>1.001502025834848</v>
       </c>
       <c r="N56">
-        <v>1.331578265281048</v>
+        <v>1.001453821619376</v>
       </c>
       <c r="O56">
-        <v>1.449218528105657</v>
+        <v>1.001475698699428</v>
       </c>
       <c r="P56">
-        <v>1.463393839832229</v>
+        <v>1.001528054843453</v>
       </c>
       <c r="Q56">
-        <v>1.419646165853346</v>
+        <v>1.001463939155307</v>
       </c>
       <c r="R56">
-        <v>1.581602013231722</v>
+        <v>1.001463939155307</v>
       </c>
       <c r="S56">
-        <v>1.570250371536383</v>
+        <v>1.001528054843453</v>
       </c>
       <c r="T56">
-        <v>1.489833222919827</v>
+        <v>1.001475698699428</v>
       </c>
       <c r="U56">
-        <v>1.668203230203756</v>
+        <v>1.001453821619376</v>
       </c>
       <c r="V56">
-        <v>1.763365026578977</v>
+        <v>1.001502025834848</v>
       </c>
       <c r="W56">
-        <v>1.603326909633903</v>
+        <v>1.001532041152996</v>
       </c>
       <c r="X56">
-        <v>1.581918281051065</v>
+        <v>1.001470794702374</v>
       </c>
       <c r="Y56">
-        <v>1.839974728572837</v>
+        <v>1.001391464637604</v>
       </c>
       <c r="Z56">
-        <v>2.043021283428591</v>
+        <v>1.001492039544525</v>
       </c>
       <c r="AA56">
-        <v>1.939978080537816</v>
+        <v>1.001628586926263</v>
       </c>
       <c r="AB56">
-        <v>1.623971925783687</v>
+        <v>1.001651660657388</v>
       </c>
       <c r="AC56">
-        <v>1.31023117513435</v>
+        <v>1.001451645163402</v>
       </c>
       <c r="AD56">
-        <v>1.113104346604712</v>
+        <v>1.001060745398644</v>
       </c>
       <c r="AE56">
-        <v>1.027546164291991</v>
+        <v>1.000555327907617</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5595,88 +5595,88 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1.03866861516966</v>
+        <v>1.000523752268269</v>
       </c>
       <c r="E57">
-        <v>1.062826764642163</v>
+        <v>1.000980115611351</v>
       </c>
       <c r="F57">
-        <v>1.114663628700328</v>
+        <v>1.001278330375858</v>
       </c>
       <c r="G57">
-        <v>1.128041036343108</v>
+        <v>1.001374420206566</v>
       </c>
       <c r="H57">
-        <v>1.183449654193342</v>
+        <v>1.001264068785085</v>
       </c>
       <c r="I57">
-        <v>1.204112777288062</v>
+        <v>1.001136645835291</v>
       </c>
       <c r="J57">
-        <v>1.235300096562198</v>
+        <v>1.001109516538314</v>
       </c>
       <c r="K57">
-        <v>1.29935020490608</v>
+        <v>1.00121421768456</v>
       </c>
       <c r="L57">
-        <v>1.275452030790229</v>
+        <v>1.001241704769542</v>
       </c>
       <c r="M57">
-        <v>1.385353682098287</v>
+        <v>1.001157754874618</v>
       </c>
       <c r="N57">
-        <v>1.358244348118796</v>
+        <v>1.001175006077547</v>
       </c>
       <c r="O57">
-        <v>1.399258319326676</v>
+        <v>1.001205048443534</v>
       </c>
       <c r="P57">
-        <v>1.504518961462849</v>
+        <v>1.001192578947931</v>
       </c>
       <c r="Q57">
-        <v>1.425375308082607</v>
+        <v>1.00118320223288</v>
       </c>
       <c r="R57">
-        <v>1.521390103429074</v>
+        <v>1.00118320223288</v>
       </c>
       <c r="S57">
-        <v>1.626407108967495</v>
+        <v>1.001192578947931</v>
       </c>
       <c r="T57">
-        <v>1.513619238387383</v>
+        <v>1.001205048443534</v>
       </c>
       <c r="U57">
-        <v>1.582041146745718</v>
+        <v>1.001175006077547</v>
       </c>
       <c r="V57">
-        <v>1.775089337869453</v>
+        <v>1.001157754874618</v>
       </c>
       <c r="W57">
-        <v>1.703722972684195</v>
+        <v>1.001241704769542</v>
       </c>
       <c r="X57">
-        <v>1.56620331839164</v>
+        <v>1.00121421768456</v>
       </c>
       <c r="Y57">
-        <v>1.715392342530033</v>
+        <v>1.001109516538314</v>
       </c>
       <c r="Z57">
-        <v>1.993704952246891</v>
+        <v>1.001136645835291</v>
       </c>
       <c r="AA57">
-        <v>2.045317510298574</v>
+        <v>1.001264068785085</v>
       </c>
       <c r="AB57">
-        <v>1.807344680635389</v>
+        <v>1.001374420206566</v>
       </c>
       <c r="AC57">
-        <v>1.470923977350327</v>
+        <v>1.001278330375858</v>
       </c>
       <c r="AD57">
-        <v>1.210372071034406</v>
+        <v>1.000980115611351</v>
       </c>
       <c r="AE57">
-        <v>1.068599340135383</v>
+        <v>1.000523752268269</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5690,88 +5690,88 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1.035899331971704</v>
+        <v>1.000475329397624</v>
       </c>
       <c r="E58">
-        <v>1.068626867079157</v>
+        <v>1.000859948679414</v>
       </c>
       <c r="F58">
-        <v>1.104543004524695</v>
+        <v>1.001054484354865</v>
       </c>
       <c r="G58">
-        <v>1.142239641458282</v>
+        <v>1.001045569442697</v>
       </c>
       <c r="H58">
-        <v>1.164126154628553</v>
+        <v>1.000895282761828</v>
       </c>
       <c r="I58">
-        <v>1.225096518777968</v>
+        <v>1.000806325539261</v>
       </c>
       <c r="J58">
-        <v>1.21623420247833</v>
+        <v>1.00086052604983</v>
       </c>
       <c r="K58">
-        <v>1.307773262417295</v>
+        <v>1.00093833715143</v>
       </c>
       <c r="L58">
-        <v>1.284676398860094</v>
+        <v>1.000923509141111</v>
       </c>
       <c r="M58">
-        <v>1.353984945216261</v>
+        <v>1.00083878418885</v>
       </c>
       <c r="N58">
-        <v>1.401941257253387</v>
+        <v>1.000899388326482</v>
       </c>
       <c r="O58">
-        <v>1.365359778279769</v>
+        <v>1.000923770222243</v>
       </c>
       <c r="P58">
-        <v>1.499543009214365</v>
+        <v>1.000857876247546</v>
       </c>
       <c r="Q58">
-        <v>1.474894062493545</v>
+        <v>1.000904809489216</v>
       </c>
       <c r="R58">
-        <v>1.463428746174414</v>
+        <v>1.000904809489216</v>
       </c>
       <c r="S58">
-        <v>1.628112627368973</v>
+        <v>1.000857876247546</v>
       </c>
       <c r="T58">
-        <v>1.58270769858955</v>
+        <v>1.000923770222243</v>
       </c>
       <c r="U58">
-        <v>1.527035633979029</v>
+        <v>1.000899388326482</v>
       </c>
       <c r="V58">
-        <v>1.720710010082681</v>
+        <v>1.00083878418885</v>
       </c>
       <c r="W58">
-        <v>1.787580713457662</v>
+        <v>1.000923509141111</v>
       </c>
       <c r="X58">
-        <v>1.622165525339953</v>
+        <v>1.00093833715143</v>
       </c>
       <c r="Y58">
-        <v>1.623090852881845</v>
+        <v>1.00086052604983</v>
       </c>
       <c r="Z58">
-        <v>1.887713608148897</v>
+        <v>1.000806325539261</v>
       </c>
       <c r="AA58">
-        <v>2.078260593130615</v>
+        <v>1.000895282761828</v>
       </c>
       <c r="AB58">
-        <v>1.966105467081622</v>
+        <v>1.001045569442697</v>
       </c>
       <c r="AC58">
-        <v>1.650583978808589</v>
+        <v>1.001054484354865</v>
       </c>
       <c r="AD58">
-        <v>1.337334589318325</v>
+        <v>1.000859948679414</v>
       </c>
       <c r="AE58">
-        <v>1.127945863669685</v>
+        <v>1.000475329397624</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5785,88 +5785,88 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1.032337099557686</v>
+        <v>1.00040422899802</v>
       </c>
       <c r="E59">
-        <v>1.075224120100671</v>
+        <v>1.000692260845892</v>
       </c>
       <c r="F59">
-        <v>1.094867505221075</v>
+        <v>1.000779775686967</v>
       </c>
       <c r="G59">
-        <v>1.152485715632626</v>
+        <v>1.000681375736653</v>
       </c>
       <c r="H59">
-        <v>1.15457361780855</v>
+        <v>1.000541829103147</v>
       </c>
       <c r="I59">
-        <v>1.22862209015561</v>
+        <v>1.000511794676515</v>
       </c>
       <c r="J59">
-        <v>1.222268652454112</v>
+        <v>1.000617438209103</v>
       </c>
       <c r="K59">
-        <v>1.287537339054468</v>
+        <v>1.000639296840321</v>
       </c>
       <c r="L59">
-        <v>1.3170021194083</v>
+        <v>1.000587839277196</v>
       </c>
       <c r="M59">
-        <v>1.317278149754474</v>
+        <v>1.000556145775556</v>
       </c>
       <c r="N59">
-        <v>1.424503718635292</v>
+        <v>1.00061471501495</v>
       </c>
       <c r="O59">
-        <v>1.374152414709915</v>
+        <v>1.000619923033337</v>
       </c>
       <c r="P59">
-        <v>1.454859012552027</v>
+        <v>1.000551380351254</v>
       </c>
       <c r="Q59">
-        <v>1.527708724504905</v>
+        <v>1.000614683435135</v>
       </c>
       <c r="R59">
-        <v>1.449504688298176</v>
+        <v>1.000614683435135</v>
       </c>
       <c r="S59">
-        <v>1.577295943276956</v>
+        <v>1.000551380351254</v>
       </c>
       <c r="T59">
-        <v>1.649229374833943</v>
+        <v>1.000619923033337</v>
       </c>
       <c r="U59">
-        <v>1.534366731390884</v>
+        <v>1.00061471501495</v>
       </c>
       <c r="V59">
-        <v>1.634629764113741</v>
+        <v>1.000556145775556</v>
       </c>
       <c r="W59">
-        <v>1.813366981357957</v>
+        <v>1.000587839277196</v>
       </c>
       <c r="X59">
-        <v>1.719712861203166</v>
+        <v>1.000639296840321</v>
       </c>
       <c r="Y59">
-        <v>1.596713720164947</v>
+        <v>1.000617438209103</v>
       </c>
       <c r="Z59">
-        <v>1.763203321479569</v>
+        <v>1.000511794676515</v>
       </c>
       <c r="AA59">
-        <v>2.035528148204978</v>
+        <v>1.000541829103147</v>
       </c>
       <c r="AB59">
-        <v>2.074024662971846</v>
+        <v>1.000681375736653</v>
       </c>
       <c r="AC59">
-        <v>1.830812004962544</v>
+        <v>1.000779775686967</v>
       </c>
       <c r="AD59">
-        <v>1.490262273562649</v>
+        <v>1.000692260845892</v>
       </c>
       <c r="AE59">
-        <v>1.207653102698726</v>
+        <v>1.00040422899802</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5880,88 +5880,88 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1.031412347389992</v>
+        <v>1.000304079310879</v>
       </c>
       <c r="E60">
-        <v>1.076010464266541</v>
+        <v>1.000474443760671</v>
       </c>
       <c r="F60">
-        <v>1.094685712240242</v>
+        <v>1.000458588321221</v>
       </c>
       <c r="G60">
-        <v>1.148849212748064</v>
+        <v>1.000306895359811</v>
       </c>
       <c r="H60">
-        <v>1.16301122353133</v>
+        <v>1.000215753496184</v>
       </c>
       <c r="I60">
-        <v>1.212047184021113</v>
+        <v>1.000251183303574</v>
       </c>
       <c r="J60">
-        <v>1.246208633505358</v>
+        <v>1.000353404143034</v>
       </c>
       <c r="K60">
-        <v>1.25835043913001</v>
+        <v>1.000321927480626</v>
       </c>
       <c r="L60">
-        <v>1.342030652454592</v>
+        <v>1.000257110428651</v>
       </c>
       <c r="M60">
-        <v>1.307308738926348</v>
+        <v>1.00029607304752</v>
       </c>
       <c r="N60">
-        <v>1.407671961815649</v>
+        <v>1.000316701398166</v>
       </c>
       <c r="O60">
-        <v>1.415709526581934</v>
+        <v>1.000297638169313</v>
       </c>
       <c r="P60">
-        <v>1.408210794417381</v>
+        <v>1.000277845896452</v>
       </c>
       <c r="Q60">
-        <v>1.542759949476364</v>
+        <v>1.000308731610083</v>
       </c>
       <c r="R60">
-        <v>1.487079453218316</v>
+        <v>1.000308731610083</v>
       </c>
       <c r="S60">
-        <v>1.512514803329491</v>
+        <v>1.000277845896452</v>
       </c>
       <c r="T60">
-        <v>1.669052032328324</v>
+        <v>1.000297638169313</v>
       </c>
       <c r="U60">
-        <v>1.595479247844218</v>
+        <v>1.000316701398166</v>
       </c>
       <c r="V60">
-        <v>1.568168064275141</v>
+        <v>1.00029607304752</v>
       </c>
       <c r="W60">
-        <v>1.771055414908501</v>
+        <v>1.000257110428651</v>
       </c>
       <c r="X60">
-        <v>1.809923941845522</v>
+        <v>1.000321927480626</v>
       </c>
       <c r="Y60">
-        <v>1.642708773036259</v>
+        <v>1.000353404143034</v>
       </c>
       <c r="Z60">
-        <v>1.665151841162939</v>
+        <v>1.000251183303574</v>
       </c>
       <c r="AA60">
-        <v>1.934338625289706</v>
+        <v>1.000215753496184</v>
       </c>
       <c r="AB60">
-        <v>2.111516565668027</v>
+        <v>1.000306895359811</v>
       </c>
       <c r="AC60">
-        <v>1.98670576276885</v>
+        <v>1.000458588321221</v>
       </c>
       <c r="AD60">
-        <v>1.657675097940967</v>
+        <v>1.000474443760671</v>
       </c>
       <c r="AE60">
-        <v>1.306099358769066</v>
+        <v>1.000304079310879</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5975,88 +5975,88 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1.033784037593938</v>
+        <v>1.000170500908466</v>
       </c>
       <c r="E61">
-        <v>1.070316091206698</v>
+        <v>1.000210071703139</v>
       </c>
       <c r="F61">
-        <v>1.103375982392939</v>
+        <v>1.000103441574986</v>
       </c>
       <c r="G61">
-        <v>1.135212337432363</v>
+        <v>0.9999475527574146</v>
       </c>
       <c r="H61">
-        <v>1.18016731668074</v>
+        <v>0.9999213208069748</v>
       </c>
       <c r="I61">
-        <v>1.191753650135231</v>
+        <v>1.000007269688651</v>
       </c>
       <c r="J61">
-        <v>1.264643703591706</v>
+        <v>1.000055945701498</v>
       </c>
       <c r="K61">
-        <v>1.247048141130535</v>
+        <v>0.9999962230235391</v>
       </c>
       <c r="L61">
-        <v>1.337458653787678</v>
+        <v>0.9999523264978176</v>
       </c>
       <c r="M61">
-        <v>1.331110612202608</v>
+        <v>1.000031416752428</v>
       </c>
       <c r="N61">
-        <v>1.367758790465251</v>
+        <v>1.000008764886507</v>
       </c>
       <c r="O61">
-        <v>1.453382564221243</v>
+        <v>0.9999751710442872</v>
       </c>
       <c r="P61">
-        <v>1.397074548088618</v>
+        <v>1.000016980938273</v>
       </c>
       <c r="Q61">
-        <v>1.510253761618565</v>
+        <v>0.9999950583566237</v>
       </c>
       <c r="R61">
-        <v>1.544933179730762</v>
+        <v>0.9999950583566237</v>
       </c>
       <c r="S61">
-        <v>1.48050913310394</v>
+        <v>1.000016980938273</v>
       </c>
       <c r="T61">
-        <v>1.631347186451971</v>
+        <v>0.9999751710442872</v>
       </c>
       <c r="U61">
-        <v>1.668157164526309</v>
+        <v>1.000008764886507</v>
       </c>
       <c r="V61">
-        <v>1.55925599798715</v>
+        <v>1.000031416752428</v>
       </c>
       <c r="W61">
-        <v>1.68773914253496</v>
+        <v>0.9999523264978176</v>
       </c>
       <c r="X61">
-        <v>1.848614098551307</v>
+        <v>0.9999962230235391</v>
       </c>
       <c r="Y61">
-        <v>1.736118385141556</v>
+        <v>1.000055945701498</v>
       </c>
       <c r="Z61">
-        <v>1.62878628984633</v>
+        <v>1.000007269688651</v>
       </c>
       <c r="AA61">
-        <v>1.810146891437322</v>
+        <v>0.9999213208069748</v>
       </c>
       <c r="AB61">
-        <v>2.073511282544833</v>
+        <v>0.9999475527574146</v>
       </c>
       <c r="AC61">
-        <v>2.091544555092979</v>
+        <v>1.000103441574986</v>
       </c>
       <c r="AD61">
-        <v>1.81945165373328</v>
+        <v>1.000210071703139</v>
       </c>
       <c r="AE61">
-        <v>1.415914709940115</v>
+        <v>1.000170500908466</v>
       </c>
       <c r="AF61">
         <v>1</v>
